--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
   <si>
     <t>Betrag</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>PAZ -&gt; auf Diana umgestellt</t>
+  </si>
+  <si>
+    <t>Paypal an Manuel</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA168"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,10 +519,10 @@
     <col min="5" max="5" width="23.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="27" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="28" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -601,8 +604,11 @@
       <c r="AA1" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -616,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>43832</v>
       </c>
@@ -630,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>43832</v>
       </c>
@@ -641,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>43832</v>
       </c>
@@ -652,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>43832</v>
       </c>
@@ -663,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>43832</v>
       </c>
@@ -674,7 +680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>43832</v>
       </c>
@@ -685,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>43832</v>
       </c>
@@ -699,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>43832</v>
       </c>
@@ -710,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>43832</v>
       </c>
@@ -721,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>43832</v>
       </c>
@@ -735,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>43833</v>
       </c>
@@ -746,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>43836</v>
       </c>
@@ -757,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>43837</v>
       </c>
@@ -768,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>43837</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B65" s="5">
         <v>43865</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B66" s="5">
         <v>43867</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B67" s="5">
         <v>43868</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B68" s="5">
         <v>43871</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B69" s="5">
         <v>43871</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B70" s="5">
         <v>43871</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B71" s="5">
         <v>43872</v>
       </c>
@@ -1393,7 +1399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B72" s="5">
         <v>43872</v>
       </c>
@@ -1404,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B73" s="5">
         <v>43872</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B74" s="5">
         <v>43875</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B75" s="5">
         <v>43875</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B76" s="5">
         <v>43878</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B77" s="5">
         <v>43878</v>
       </c>
@@ -1465,18 +1471,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B78" s="5">
         <v>43879</v>
       </c>
       <c r="C78" s="1">
         <v>-19.13</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="E78" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB78" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B79" s="5">
         <v>43879</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B80" s="5">
         <v>43882</v>
       </c>
@@ -2301,6 +2310,9 @@
       <c r="C152" s="1">
         <v>-19.13</v>
       </c>
+      <c r="E152" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="F152" s="8" t="s">
         <v>8</v>
       </c>
@@ -2482,6 +2494,9 @@
       </c>
       <c r="C168" s="1">
         <v>-6.3</v>
+      </c>
+      <c r="D168" s="1">
+        <v>436.22</v>
       </c>
       <c r="K168" s="8" t="s">
         <v>8</v>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="71">
   <si>
     <t>Betrag</t>
   </si>
@@ -150,6 +150,93 @@
   </si>
   <si>
     <t>Paypal an Manuel</t>
+  </si>
+  <si>
+    <t>Paypal (Netflix)</t>
+  </si>
+  <si>
+    <t>Eurofit Königslutter</t>
+  </si>
+  <si>
+    <t>Eurofit Wendeburg</t>
+  </si>
+  <si>
+    <t>Wasserverband Peine</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Brandkasse</t>
+  </si>
+  <si>
+    <t>Guitar Pro gekauft</t>
+  </si>
+  <si>
+    <t>VISA (u.a. Vocaloid)</t>
+  </si>
+  <si>
+    <t>Mama hat PAX bezahlt</t>
+  </si>
+  <si>
+    <t>Fitti Kölu</t>
+  </si>
+  <si>
+    <t>Couchtisch</t>
+  </si>
+  <si>
+    <t>Sportverein Woltorf</t>
+  </si>
+  <si>
+    <t>Aldi</t>
+  </si>
+  <si>
+    <t>Netto</t>
+  </si>
+  <si>
+    <t>EWE Tel</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>Idea Speckstein</t>
+  </si>
+  <si>
+    <t>Musikhaus Schulte</t>
+  </si>
+  <si>
+    <t>Kontoabschluss</t>
+  </si>
+  <si>
+    <t>PAX bei IKEA gekauft</t>
+  </si>
+  <si>
+    <t>Fitti Wendeburg</t>
+  </si>
+  <si>
+    <t>Überweisung an Diana</t>
+  </si>
+  <si>
+    <t>eurofit 24 Kölu</t>
+  </si>
+  <si>
+    <t>eurofit 24 Wendeburg</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Guitarmasterclass</t>
+  </si>
+  <si>
+    <t>Abbuchung auf Bankkonto (Kiva)</t>
+  </si>
+  <si>
+    <t>Targobank (Trockner?)</t>
+  </si>
+  <si>
+    <t>Digital Drive? --&gt; Vocaloid</t>
   </si>
 </sst>
 </file>
@@ -503,11 +590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB168"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,13 +603,13 @@
     <col min="2" max="2" width="11.5546875" style="5"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="23.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="28" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -607,8 +694,11 @@
       <c r="AB1" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -618,11 +708,11 @@
       <c r="C2" s="1">
         <v>-7.99</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>43832</v>
       </c>
@@ -630,57 +720,63 @@
         <v>-24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>43832</v>
       </c>
       <c r="C4" s="1">
         <v>-1</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>43832</v>
       </c>
       <c r="C5" s="1">
         <v>-20</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>43832</v>
       </c>
       <c r="C6" s="1">
         <v>-32.86</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>43832</v>
       </c>
       <c r="C7" s="1">
         <v>-19.899999999999999</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>43832</v>
       </c>
@@ -691,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>43832</v>
       </c>
@@ -705,29 +801,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>43832</v>
       </c>
       <c r="C10" s="1">
         <v>-23</v>
       </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>43832</v>
       </c>
       <c r="C11" s="1">
         <v>-569.34</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>43832</v>
       </c>
@@ -741,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>43833</v>
       </c>
@@ -752,62 +854,71 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>43836</v>
       </c>
       <c r="C14" s="1">
         <v>-69.95</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>43837</v>
       </c>
       <c r="C15" s="1">
         <v>-327.24</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>43837</v>
       </c>
       <c r="C16" s="1">
         <v>-261.77999999999997</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>43839</v>
       </c>
       <c r="C17" s="1">
         <v>-14.05</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="AC17" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>43839</v>
       </c>
       <c r="C18" s="1">
         <v>-7.49</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="AC18" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>43839</v>
       </c>
@@ -821,40 +932,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>43843</v>
       </c>
       <c r="C20" s="1">
         <v>-18.95</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R20" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>43843</v>
       </c>
       <c r="C21" s="1">
         <v>-52.28</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R21" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>43843</v>
       </c>
       <c r="C22" s="1">
         <v>-19.309999999999999</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>43843</v>
       </c>
@@ -865,7 +976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>43843</v>
       </c>
@@ -876,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>43843</v>
       </c>
@@ -887,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>43843</v>
       </c>
@@ -898,29 +1009,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>43844</v>
       </c>
       <c r="C27" s="1">
         <v>-17.14</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>43845</v>
       </c>
       <c r="C28" s="1">
         <v>-23.98</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q28" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>43845</v>
       </c>
@@ -934,29 +1048,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>43845</v>
       </c>
       <c r="C30" s="1">
         <v>-3.14</v>
       </c>
+      <c r="E30" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F30" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>43846</v>
       </c>
       <c r="C31" s="1">
         <v>-29.07</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="R31" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>43846</v>
       </c>
@@ -967,18 +1084,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>43850</v>
       </c>
       <c r="C33" s="1">
         <v>-66.430000000000007</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="W33" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>43852</v>
       </c>
@@ -989,29 +1106,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>43853</v>
       </c>
       <c r="C35" s="1">
         <v>-61.97</v>
       </c>
+      <c r="E35" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="F35" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>43853</v>
       </c>
       <c r="C36" s="1">
         <v>-4.28</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R36" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>43853</v>
       </c>
@@ -1022,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>43854</v>
       </c>
@@ -1033,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>43854</v>
       </c>
@@ -1044,18 +1164,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>43857</v>
       </c>
       <c r="C40" s="1">
         <v>-26.31</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="AB40" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>43857</v>
       </c>
@@ -1066,95 +1186,107 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>43857</v>
       </c>
       <c r="C42" s="1">
         <v>-6.09</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R42" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>43857</v>
       </c>
       <c r="C43" s="1">
         <v>-13.98</v>
       </c>
+      <c r="E43" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="F43" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>43858</v>
       </c>
       <c r="C44" s="1">
         <v>-45.03</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L44" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>43858</v>
       </c>
       <c r="C45" s="1">
         <v>-636.57000000000005</v>
       </c>
+      <c r="E45" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="L45" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>43858</v>
       </c>
       <c r="C46" s="1">
         <v>-56.6</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>43858</v>
       </c>
       <c r="C47" s="1">
         <v>651</v>
       </c>
+      <c r="E47" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="L47" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>43860</v>
       </c>
       <c r="C48" s="1">
         <v>-7</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="L48" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>43860</v>
       </c>
       <c r="C49" s="1">
         <v>-408.34</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Z49" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>43860</v>
       </c>
@@ -1165,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>43861</v>
       </c>
@@ -1176,29 +1308,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>43861</v>
       </c>
       <c r="C52" s="1">
         <v>-7.99</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AB52" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>43861</v>
       </c>
       <c r="C53" s="1">
         <v>-9</v>
       </c>
+      <c r="E53" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="F53" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B54" s="5">
         <v>43864</v>
       </c>
@@ -1209,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
         <v>43864</v>
       </c>
@@ -1220,7 +1355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <v>43864</v>
       </c>
@@ -1231,18 +1366,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
         <v>43864</v>
       </c>
       <c r="C57" s="1">
         <v>-1</v>
       </c>
+      <c r="E57" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F57" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
         <v>43864</v>
       </c>
@@ -1253,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B59" s="5">
         <v>43864</v>
       </c>
@@ -1264,29 +1402,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
         <v>43864</v>
       </c>
       <c r="C60" s="1">
         <v>-17.47</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R60" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B61" s="5">
         <v>43864</v>
       </c>
       <c r="C61" s="1">
         <v>-7.26</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="R61" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B62" s="5">
         <v>43864</v>
       </c>
@@ -1297,25 +1435,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B63" s="5">
         <v>43865</v>
       </c>
       <c r="C63" s="1">
         <v>-30</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AB63" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B64" s="5">
         <v>43865</v>
       </c>
       <c r="C64" s="1">
         <v>-49</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="E64" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L64" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1337,7 +1478,7 @@
       <c r="C66" s="1">
         <v>-14.16</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="AB66" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1406,7 +1547,7 @@
       <c r="C72" s="1">
         <v>-10.96</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="R72" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1431,6 +1572,9 @@
       <c r="C74" s="1">
         <v>-13.5</v>
       </c>
+      <c r="E74" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F74" s="8" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1586,10 @@
       <c r="C75" s="1">
         <v>-5.38</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R75" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1547,6 +1694,9 @@
       <c r="C84" s="1">
         <v>-363.54</v>
       </c>
+      <c r="E84" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F84" s="8" t="s">
         <v>8</v>
       </c>
@@ -1638,6 +1788,9 @@
       <c r="C92" s="1">
         <v>-1</v>
       </c>
+      <c r="E92" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="F92" s="8" t="s">
         <v>8</v>
       </c>
@@ -1649,6 +1802,9 @@
       <c r="C93" s="1">
         <v>-19.899999999999999</v>
       </c>
+      <c r="E93" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="F93" s="8" t="s">
         <v>8</v>
       </c>
@@ -1671,7 +1827,7 @@
       <c r="C95" s="1">
         <v>-19.809999999999999</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="S95" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1686,18 +1842,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B97" s="5">
         <v>43892</v>
       </c>
       <c r="C97" s="1">
         <v>421.27</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E97" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB97" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B98" s="5">
         <v>43892</v>
       </c>
@@ -1711,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B99" s="5">
         <v>43893</v>
       </c>
@@ -1722,29 +1881,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B100" s="5">
         <v>43893</v>
       </c>
       <c r="C100" s="1">
         <v>-11.99</v>
       </c>
-      <c r="F100" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E100" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB100" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B101" s="5">
         <v>43896</v>
       </c>
       <c r="C101" s="1">
         <v>-14.08</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E101" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB101" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B102" s="5">
         <v>43899</v>
       </c>
@@ -1755,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B103" s="5">
         <v>43899</v>
       </c>
@@ -1766,18 +1931,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B104" s="5">
         <v>43899</v>
       </c>
       <c r="C104" s="1">
         <v>-3.87</v>
       </c>
-      <c r="F104" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="R104" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B105" s="5">
         <v>43899</v>
       </c>
@@ -1788,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B106" s="5">
         <v>43899</v>
       </c>
@@ -1799,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B107" s="5">
         <v>43899</v>
       </c>
@@ -1810,7 +1975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B108" s="5">
         <v>43900</v>
       </c>
@@ -1821,7 +1986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B109" s="5">
         <v>43901</v>
       </c>
@@ -1832,7 +1997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B110" s="5">
         <v>43902</v>
       </c>
@@ -1843,7 +2008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B111" s="5">
         <v>43902</v>
       </c>
@@ -1854,7 +2019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B112" s="5">
         <v>43903</v>
       </c>
@@ -1905,6 +2070,9 @@
       <c r="C116" s="1">
         <v>-74.2</v>
       </c>
+      <c r="E116" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="F116" s="8" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +2084,7 @@
       <c r="C117" s="1">
         <v>-2.99</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="R117" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1927,6 +2095,9 @@
       <c r="C118" s="1">
         <v>-25</v>
       </c>
+      <c r="E118" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="F118" s="8" t="s">
         <v>8</v>
       </c>
@@ -2073,7 +2244,7 @@
       <c r="C131" s="1">
         <v>-6.27</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="R131" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2222,11 +2393,14 @@
       <c r="C144" s="1">
         <v>-1820</v>
       </c>
+      <c r="E144" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J144" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B145" s="5">
         <v>43920</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B146" s="5">
         <v>43920</v>
       </c>
@@ -2248,7 +2422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B147" s="5">
         <v>43920</v>
       </c>
@@ -2259,7 +2433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B148" s="5">
         <v>43920</v>
       </c>
@@ -2270,7 +2444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B149" s="5">
         <v>43920</v>
       </c>
@@ -2281,7 +2455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B150" s="5">
         <v>43920</v>
       </c>
@@ -2292,7 +2466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B151" s="5">
         <v>43921</v>
       </c>
@@ -2303,7 +2477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B152" s="5">
         <v>43861</v>
       </c>
@@ -2313,11 +2487,11 @@
       <c r="E152" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F152" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AB152" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B153" s="5">
         <v>43921</v>
       </c>
@@ -2328,7 +2502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B154" s="5">
         <v>43921</v>
       </c>
@@ -2339,7 +2513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B155" s="5">
         <v>43861</v>
       </c>
@@ -2353,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B156" s="5">
         <v>43922</v>
       </c>
@@ -2364,7 +2538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B157" s="5">
         <v>43922</v>
       </c>
@@ -2375,7 +2549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B158" s="5">
         <v>43922</v>
       </c>
@@ -2386,23 +2560,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B159" s="5">
         <v>43922</v>
       </c>
       <c r="C159" s="1">
         <v>-1</v>
       </c>
+      <c r="E159" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F159" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B160" s="5">
         <v>43922</v>
       </c>
       <c r="C160" s="1">
         <v>-19.899999999999999</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="F160" s="8" t="s">
         <v>8</v>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="72">
   <si>
     <t>Betrag</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Unterhalt</t>
   </si>
   <si>
-    <t>JA</t>
-  </si>
-  <si>
     <t>Krankengeld</t>
   </si>
   <si>
@@ -237,6 +234,12 @@
   </si>
   <si>
     <t>Digital Drive? --&gt; Vocaloid</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Windows 10 für Tim</t>
   </si>
 </sst>
 </file>
@@ -590,11 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R171" sqref="R171:R172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,70 +635,70 @@
         <v>7</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="AC1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -709,7 +712,7 @@
         <v>-7.99</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -720,10 +723,10 @@
         <v>-24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -734,10 +737,10 @@
         <v>-1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -748,7 +751,7 @@
         <v>-20</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
@@ -759,7 +762,7 @@
         <v>-32.86</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
@@ -770,10 +773,10 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -784,7 +787,7 @@
         <v>-530</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
@@ -795,10 +798,10 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -809,10 +812,10 @@
         <v>-23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -823,10 +826,10 @@
         <v>-569.34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -837,10 +840,10 @@
         <v>-95</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -851,7 +854,7 @@
         <v>-91</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -862,10 +865,10 @@
         <v>-69.95</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -876,10 +879,10 @@
         <v>-327.24</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
@@ -890,10 +893,10 @@
         <v>-261.77999999999997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.3">
@@ -904,7 +907,7 @@
         <v>-14.05</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.3">
@@ -915,7 +918,7 @@
         <v>-7.49</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.3">
@@ -926,10 +929,10 @@
         <v>-125.7</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.3">
@@ -940,7 +943,7 @@
         <v>-18.95</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.3">
@@ -951,7 +954,7 @@
         <v>-52.28</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.3">
@@ -962,7 +965,7 @@
         <v>-19.309999999999999</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.3">
@@ -973,7 +976,7 @@
         <v>-5.7</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
@@ -984,7 +987,7 @@
         <v>-5.7</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
@@ -995,7 +998,7 @@
         <v>-3.6</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.3">
@@ -1006,7 +1009,7 @@
         <v>-3.6</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.3">
@@ -1017,10 +1020,10 @@
         <v>-17.14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.3">
@@ -1031,7 +1034,7 @@
         <v>-23.98</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.3">
@@ -1042,10 +1045,10 @@
         <v>-31</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
@@ -1056,10 +1059,10 @@
         <v>-3.14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.3">
@@ -1070,7 +1073,7 @@
         <v>-29.07</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.3">
@@ -1081,7 +1084,7 @@
         <v>1247.8499999999999</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.3">
@@ -1092,7 +1095,7 @@
         <v>-66.430000000000007</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.3">
@@ -1103,7 +1106,7 @@
         <v>-30.17</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.3">
@@ -1114,10 +1117,10 @@
         <v>-61.97</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.3">
@@ -1128,7 +1131,7 @@
         <v>-4.28</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.3">
@@ -1139,7 +1142,7 @@
         <v>83.19</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.3">
@@ -1150,7 +1153,7 @@
         <v>-20.98</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.3">
@@ -1161,7 +1164,7 @@
         <v>499.14</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.3">
@@ -1172,7 +1175,7 @@
         <v>-26.31</v>
       </c>
       <c r="AB40" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.3">
@@ -1183,7 +1186,7 @@
         <v>-38.450000000000003</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.3">
@@ -1194,7 +1197,7 @@
         <v>-6.09</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.3">
@@ -1205,10 +1208,10 @@
         <v>-13.98</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.3">
@@ -1219,7 +1222,7 @@
         <v>-45.03</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.3">
@@ -1230,10 +1233,10 @@
         <v>-636.57000000000005</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.3">
@@ -1244,10 +1247,10 @@
         <v>-56.6</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.3">
@@ -1258,10 +1261,10 @@
         <v>651</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.3">
@@ -1272,7 +1275,7 @@
         <v>-7</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.3">
@@ -1283,7 +1286,7 @@
         <v>-408.34</v>
       </c>
       <c r="Z49" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.3">
@@ -1294,7 +1297,7 @@
         <v>-767</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.3">
@@ -1305,7 +1308,7 @@
         <v>-19.809999999999999</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.3">
@@ -1316,7 +1319,7 @@
         <v>-7.99</v>
       </c>
       <c r="AB52" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.3">
@@ -1327,10 +1330,10 @@
         <v>-9</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.3">
@@ -1341,7 +1344,7 @@
         <v>-20</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.3">
@@ -1352,7 +1355,7 @@
         <v>-32.86</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.3">
@@ -1363,7 +1366,7 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.3">
@@ -1374,10 +1377,10 @@
         <v>-1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.3">
@@ -1388,7 +1391,7 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.3">
@@ -1399,7 +1402,7 @@
         <v>-530</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.3">
@@ -1410,7 +1413,7 @@
         <v>-17.47</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.3">
@@ -1421,7 +1424,7 @@
         <v>-7.26</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.3">
@@ -1432,7 +1435,7 @@
         <v>-61.65</v>
       </c>
       <c r="W62" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.3">
@@ -1443,7 +1446,7 @@
         <v>-30</v>
       </c>
       <c r="AB63" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.3">
@@ -1454,10 +1457,10 @@
         <v>-49</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.3">
@@ -1468,7 +1471,7 @@
         <v>-12.98</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.3">
@@ -1479,7 +1482,7 @@
         <v>-14.16</v>
       </c>
       <c r="AB66" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.3">
@@ -1490,7 +1493,7 @@
         <v>1081.47</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="2:28" x14ac:dyDescent="0.3">
@@ -1501,7 +1504,7 @@
         <v>-45</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.3">
@@ -1512,7 +1515,7 @@
         <v>-135</v>
       </c>
       <c r="X69" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.3">
@@ -1523,7 +1526,7 @@
         <v>-12.24</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.3">
@@ -1534,10 +1537,10 @@
         <v>-210</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.3">
@@ -1548,7 +1551,7 @@
         <v>-10.96</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="2:28" x14ac:dyDescent="0.3">
@@ -1559,10 +1562,10 @@
         <v>-29.98</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.3">
@@ -1573,10 +1576,10 @@
         <v>-13.5</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.3">
@@ -1587,10 +1590,10 @@
         <v>-5.38</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.3">
@@ -1601,10 +1604,10 @@
         <v>-31</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.3">
@@ -1615,7 +1618,7 @@
         <v>-4.43</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.3">
@@ -1626,10 +1629,10 @@
         <v>-19.13</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB78" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.3">
@@ -1640,7 +1643,7 @@
         <v>-150</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="2:28" x14ac:dyDescent="0.3">
@@ -1651,7 +1654,7 @@
         <v>-43.64</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.3">
@@ -1662,7 +1665,7 @@
         <v>-30.61</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.3">
@@ -1673,7 +1676,7 @@
         <v>1331.04</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.3">
@@ -1684,7 +1687,7 @@
         <v>-6.5</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.3">
@@ -1695,10 +1698,10 @@
         <v>-363.54</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.3">
@@ -1709,7 +1712,7 @@
         <v>-6.92</v>
       </c>
       <c r="R85" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.3">
@@ -1720,7 +1723,7 @@
         <v>-12.6</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.3">
@@ -1731,7 +1734,7 @@
         <v>332.76</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.3">
@@ -1742,10 +1745,10 @@
         <v>-4</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.3">
@@ -1756,7 +1759,7 @@
         <v>-395</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.3">
@@ -1767,7 +1770,7 @@
         <v>-20</v>
       </c>
       <c r="T90" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.3">
@@ -1778,7 +1781,7 @@
         <v>-32.86</v>
       </c>
       <c r="U91" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.3">
@@ -1789,10 +1792,10 @@
         <v>-1</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.3">
@@ -1803,10 +1806,10 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.3">
@@ -1817,7 +1820,7 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="2:21" x14ac:dyDescent="0.3">
@@ -1828,7 +1831,7 @@
         <v>-19.809999999999999</v>
       </c>
       <c r="S95" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="2:21" x14ac:dyDescent="0.3">
@@ -1839,7 +1842,7 @@
         <v>-530</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.3">
@@ -1850,10 +1853,10 @@
         <v>421.27</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB97" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="2:28" x14ac:dyDescent="0.3">
@@ -1864,10 +1867,10 @@
         <v>-276.62</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="2:28" x14ac:dyDescent="0.3">
@@ -1878,7 +1881,7 @@
         <v>-97.75</v>
       </c>
       <c r="Z99" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="2:28" x14ac:dyDescent="0.3">
@@ -1889,10 +1892,10 @@
         <v>-11.99</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB100" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="2:28" x14ac:dyDescent="0.3">
@@ -1903,10 +1906,10 @@
         <v>-14.08</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB101" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="2:28" x14ac:dyDescent="0.3">
@@ -1917,7 +1920,7 @@
         <v>-73.95</v>
       </c>
       <c r="X102" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="2:28" x14ac:dyDescent="0.3">
@@ -1928,7 +1931,7 @@
         <v>-10.199999999999999</v>
       </c>
       <c r="R103" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.3">
@@ -1939,7 +1942,7 @@
         <v>-3.87</v>
       </c>
       <c r="R104" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.3">
@@ -1950,7 +1953,7 @@
         <v>-6.3</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.3">
@@ -1961,7 +1964,7 @@
         <v>-5.7</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.3">
@@ -1972,7 +1975,7 @@
         <v>-5.7</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.3">
@@ -1983,7 +1986,7 @@
         <v>-45</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="2:28" x14ac:dyDescent="0.3">
@@ -1994,7 +1997,7 @@
         <v>-6.3</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.3">
@@ -2005,7 +2008,7 @@
         <v>-2.99</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="2:28" x14ac:dyDescent="0.3">
@@ -2016,7 +2019,7 @@
         <v>-6.3</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="2:28" x14ac:dyDescent="0.3">
@@ -2027,7 +2030,7 @@
         <v>-29.98</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.3">
@@ -2038,7 +2041,7 @@
         <v>-2.99</v>
       </c>
       <c r="R113" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.3">
@@ -2049,7 +2052,7 @@
         <v>-11.5</v>
       </c>
       <c r="W114" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.3">
@@ -2060,7 +2063,7 @@
         <v>-75</v>
       </c>
       <c r="X115" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="2:24" x14ac:dyDescent="0.3">
@@ -2071,10 +2074,10 @@
         <v>-74.2</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.3">
@@ -2085,7 +2088,7 @@
         <v>-2.99</v>
       </c>
       <c r="R117" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="2:24" x14ac:dyDescent="0.3">
@@ -2096,10 +2099,10 @@
         <v>-25</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.3">
@@ -2110,7 +2113,7 @@
         <v>-2.99</v>
       </c>
       <c r="R119" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120" spans="2:24" x14ac:dyDescent="0.3">
@@ -2121,7 +2124,7 @@
         <v>-9.27</v>
       </c>
       <c r="R120" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.3">
@@ -2132,7 +2135,7 @@
         <v>-36.1</v>
       </c>
       <c r="R121" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="2:24" x14ac:dyDescent="0.3">
@@ -2143,7 +2146,7 @@
         <v>98.98</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.3">
@@ -2154,10 +2157,10 @@
         <v>-14.99</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="2:24" x14ac:dyDescent="0.3">
@@ -2168,7 +2171,7 @@
         <v>-34.229999999999997</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.3">
@@ -2179,7 +2182,7 @@
         <v>-2.99</v>
       </c>
       <c r="R125" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="2:24" x14ac:dyDescent="0.3">
@@ -2190,7 +2193,7 @@
         <v>-15.97</v>
       </c>
       <c r="W126" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.3">
@@ -2201,7 +2204,7 @@
         <v>1247.8499999999999</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="2:24" x14ac:dyDescent="0.3">
@@ -2212,7 +2215,7 @@
         <v>-31</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.3">
@@ -2223,7 +2226,7 @@
         <v>-2.99</v>
       </c>
       <c r="R129" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.3">
@@ -2234,7 +2237,7 @@
         <v>-2.89</v>
       </c>
       <c r="R130" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.3">
@@ -2245,7 +2248,7 @@
         <v>-6.27</v>
       </c>
       <c r="R131" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.3">
@@ -2256,10 +2259,10 @@
         <v>-150</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.3">
@@ -2270,7 +2273,7 @@
         <v>-395</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.3">
@@ -2281,7 +2284,7 @@
         <v>-29.95</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.3">
@@ -2292,7 +2295,7 @@
         <v>-19.16</v>
       </c>
       <c r="W135" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.3">
@@ -2303,7 +2306,7 @@
         <v>-65.5</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.3">
@@ -2314,7 +2317,7 @@
         <v>-6.3</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.3">
@@ -2325,7 +2328,7 @@
         <v>-9.25</v>
       </c>
       <c r="R138" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.3">
@@ -2336,7 +2339,7 @@
         <v>1081.47</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.3">
@@ -2347,7 +2350,7 @@
         <v>-790</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.3">
@@ -2358,7 +2361,7 @@
         <v>-22.5</v>
       </c>
       <c r="W141" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.3">
@@ -2369,7 +2372,7 @@
         <v>-3.58</v>
       </c>
       <c r="R142" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.3">
@@ -2380,10 +2383,10 @@
         <v>1882</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.3">
@@ -2394,10 +2397,10 @@
         <v>-1820</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="2:28" x14ac:dyDescent="0.3">
@@ -2407,8 +2410,9 @@
       <c r="C145" s="1">
         <v>-135</v>
       </c>
+      <c r="H145" s="8"/>
       <c r="X145" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" spans="2:28" x14ac:dyDescent="0.3">
@@ -2419,7 +2423,7 @@
         <v>-6.3</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="2:28" x14ac:dyDescent="0.3">
@@ -2430,7 +2434,7 @@
         <v>-25.13</v>
       </c>
       <c r="W147" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="2:28" x14ac:dyDescent="0.3">
@@ -2441,7 +2445,7 @@
         <v>-11.21</v>
       </c>
       <c r="W148" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149" spans="2:28" x14ac:dyDescent="0.3">
@@ -2452,7 +2456,7 @@
         <v>-6.5</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="2:28" x14ac:dyDescent="0.3">
@@ -2463,7 +2467,7 @@
         <v>-12.29</v>
       </c>
       <c r="R150" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="2:28" x14ac:dyDescent="0.3">
@@ -2474,7 +2478,7 @@
         <v>-19.809999999999999</v>
       </c>
       <c r="S151" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="152" spans="2:28" x14ac:dyDescent="0.3">
@@ -2485,10 +2489,10 @@
         <v>-19.13</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB152" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="2:28" x14ac:dyDescent="0.3">
@@ -2499,7 +2503,7 @@
         <v>-24.94</v>
       </c>
       <c r="Z153" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="2:28" x14ac:dyDescent="0.3">
@@ -2510,7 +2514,7 @@
         <v>-2.75</v>
       </c>
       <c r="R154" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155" spans="2:28" x14ac:dyDescent="0.3">
@@ -2521,10 +2525,10 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="2:28" x14ac:dyDescent="0.3">
@@ -2535,7 +2539,7 @@
         <v>-140</v>
       </c>
       <c r="AA156" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="2:28" x14ac:dyDescent="0.3">
@@ -2546,7 +2550,7 @@
         <v>-20</v>
       </c>
       <c r="T157" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" spans="2:28" x14ac:dyDescent="0.3">
@@ -2557,7 +2561,7 @@
         <v>-32.86</v>
       </c>
       <c r="U158" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="2:28" x14ac:dyDescent="0.3">
@@ -2568,10 +2572,10 @@
         <v>-1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="160" spans="2:28" x14ac:dyDescent="0.3">
@@ -2582,13 +2586,13 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B161" s="5">
         <v>43922</v>
       </c>
@@ -2596,10 +2600,10 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B162" s="5">
         <v>43922</v>
       </c>
@@ -2607,10 +2611,10 @@
         <v>-21.26</v>
       </c>
       <c r="W162" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B163" s="5">
         <v>43922</v>
       </c>
@@ -2618,10 +2622,10 @@
         <v>-2.75</v>
       </c>
       <c r="R163" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="2:23" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B164" s="5">
         <v>43923</v>
       </c>
@@ -2629,10 +2633,10 @@
         <v>-530</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B165" s="5">
         <v>43923</v>
       </c>
@@ -2640,10 +2644,10 @@
         <v>-2.73</v>
       </c>
       <c r="R165" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="166" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B166" s="5">
         <v>43923</v>
       </c>
@@ -2651,10 +2655,10 @@
         <v>665.52</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="167" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B167" s="5">
         <v>43924</v>
       </c>
@@ -2665,10 +2669,10 @@
         <v>442.52</v>
       </c>
       <c r="R167" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B168" s="5">
         <v>43924</v>
       </c>
@@ -2679,7 +2683,60 @@
         <v>436.22</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>8</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B169" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C169" s="1">
+        <v>-38.28</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB169" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="170" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B170" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C170" s="1">
+        <v>-11.99</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB170" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B171" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C171" s="1">
+        <v>-0.54</v>
+      </c>
+      <c r="R171" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B172" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C172" s="1">
+        <v>-3.02</v>
+      </c>
+      <c r="D172" s="1">
+        <v>382.39</v>
+      </c>
+      <c r="R172" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -113,9 +113,6 @@
     <t>Benzin</t>
   </si>
   <si>
-    <t>Abhebung EC</t>
-  </si>
-  <si>
     <t>Timis DMX Interface</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>Windows 10 für Tim</t>
+  </si>
+  <si>
+    <t>AbhebungEC</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
   <dimension ref="A1:AC172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R171" sqref="R171:R172"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,22 +683,22 @@
         <v>28</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>-7.99</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -723,10 +723,10 @@
         <v>-24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -737,10 +737,10 @@
         <v>-1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -751,7 +751,7 @@
         <v>-20</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>-32.86</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
@@ -773,10 +773,10 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -787,7 +787,7 @@
         <v>-530</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
@@ -801,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -812,10 +812,10 @@
         <v>-23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -826,10 +826,10 @@
         <v>-569.34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -843,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>-91</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
@@ -865,10 +865,10 @@
         <v>-69.95</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -879,10 +879,10 @@
         <v>-327.24</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
@@ -893,10 +893,10 @@
         <v>-261.77999999999997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.3">
@@ -907,7 +907,7 @@
         <v>-14.05</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.3">
@@ -918,7 +918,7 @@
         <v>-7.49</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.3">
@@ -929,10 +929,10 @@
         <v>-125.7</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
         <v>-18.95</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>-52.28</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.3">
@@ -965,7 +965,7 @@
         <v>-19.309999999999999</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.3">
@@ -976,7 +976,7 @@
         <v>-5.7</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
         <v>-5.7</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.3">
@@ -998,7 +998,7 @@
         <v>-3.6</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.3">
@@ -1009,7 +1009,7 @@
         <v>-3.6</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.3">
@@ -1020,10 +1020,10 @@
         <v>-17.14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.3">
@@ -1034,7 +1034,7 @@
         <v>-23.98</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.3">
@@ -1048,7 +1048,7 @@
         <v>20</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.3">
@@ -1059,10 +1059,10 @@
         <v>-3.14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>-29.07</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
         <v>1247.8499999999999</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.3">
@@ -1095,7 +1095,7 @@
         <v>-66.430000000000007</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.3">
@@ -1106,7 +1106,7 @@
         <v>-30.17</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.3">
@@ -1117,10 +1117,10 @@
         <v>-61.97</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>-4.28</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
         <v>83.19</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>-20.98</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>499.14</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>-26.31</v>
       </c>
       <c r="AB40" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>-38.450000000000003</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
         <v>-6.09</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.3">
@@ -1208,10 +1208,10 @@
         <v>-13.98</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
         <v>-45.03</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.3">
@@ -1233,10 +1233,10 @@
         <v>-636.57000000000005</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.3">
@@ -1247,10 +1247,10 @@
         <v>-56.6</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.3">
@@ -1261,10 +1261,10 @@
         <v>651</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.3">
@@ -1275,7 +1275,7 @@
         <v>-7</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>-408.34</v>
       </c>
       <c r="Z49" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.3">
@@ -1297,7 +1297,7 @@
         <v>-767</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
         <v>-19.809999999999999</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.3">
@@ -1319,7 +1319,7 @@
         <v>-7.99</v>
       </c>
       <c r="AB52" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.3">
@@ -1330,10 +1330,10 @@
         <v>-9</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
         <v>-20</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.3">
@@ -1355,7 +1355,7 @@
         <v>-32.86</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.3">
@@ -1377,10 +1377,10 @@
         <v>-1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.3">
@@ -1402,7 +1402,7 @@
         <v>-530</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>-17.47</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.3">
@@ -1424,7 +1424,7 @@
         <v>-7.26</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.3">
@@ -1435,7 +1435,7 @@
         <v>-61.65</v>
       </c>
       <c r="W62" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>-30</v>
       </c>
       <c r="AB63" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.3">
@@ -1457,10 +1457,10 @@
         <v>-49</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="2:28" x14ac:dyDescent="0.3">
@@ -1471,7 +1471,7 @@
         <v>-12.98</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="2:28" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
         <v>-14.16</v>
       </c>
       <c r="AB66" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="2:28" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>1081.47</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:28" x14ac:dyDescent="0.3">
@@ -1504,7 +1504,7 @@
         <v>-45</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="2:28" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
         <v>-135</v>
       </c>
       <c r="X69" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="2:28" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>-12.24</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="2:28" x14ac:dyDescent="0.3">
@@ -1537,10 +1537,10 @@
         <v>-210</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="2:28" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
         <v>-10.96</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="2:28" x14ac:dyDescent="0.3">
@@ -1562,10 +1562,10 @@
         <v>-29.98</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.3">
@@ -1576,10 +1576,10 @@
         <v>-13.5</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="2:28" x14ac:dyDescent="0.3">
@@ -1590,10 +1590,10 @@
         <v>-5.38</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="2:28" x14ac:dyDescent="0.3">
@@ -1607,7 +1607,7 @@
         <v>20</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="2:28" x14ac:dyDescent="0.3">
@@ -1618,7 +1618,7 @@
         <v>-4.43</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.3">
@@ -1629,10 +1629,10 @@
         <v>-19.13</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB78" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.3">
@@ -1643,7 +1643,7 @@
         <v>-150</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:28" x14ac:dyDescent="0.3">
@@ -1654,7 +1654,7 @@
         <v>-43.64</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.3">
@@ -1665,7 +1665,7 @@
         <v>-30.61</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.3">
@@ -1676,7 +1676,7 @@
         <v>1331.04</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.3">
@@ -1687,7 +1687,7 @@
         <v>-6.5</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.3">
@@ -1698,10 +1698,10 @@
         <v>-363.54</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.3">
@@ -1712,7 +1712,7 @@
         <v>-6.92</v>
       </c>
       <c r="R85" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.3">
@@ -1723,7 +1723,7 @@
         <v>-12.6</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.3">
@@ -1734,7 +1734,7 @@
         <v>332.76</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.3">
@@ -1745,10 +1745,10 @@
         <v>-4</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.3">
@@ -1759,7 +1759,7 @@
         <v>-395</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.3">
@@ -1770,7 +1770,7 @@
         <v>-20</v>
       </c>
       <c r="T90" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>-32.86</v>
       </c>
       <c r="U91" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.3">
@@ -1792,10 +1792,10 @@
         <v>-1</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.3">
@@ -1806,10 +1806,10 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="2:21" x14ac:dyDescent="0.3">
@@ -1831,7 +1831,7 @@
         <v>-19.809999999999999</v>
       </c>
       <c r="S95" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="2:21" x14ac:dyDescent="0.3">
@@ -1842,7 +1842,7 @@
         <v>-530</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="2:28" x14ac:dyDescent="0.3">
@@ -1853,10 +1853,10 @@
         <v>421.27</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB97" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="2:28" x14ac:dyDescent="0.3">
@@ -1867,10 +1867,10 @@
         <v>-276.62</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="2:28" x14ac:dyDescent="0.3">
@@ -1881,7 +1881,7 @@
         <v>-97.75</v>
       </c>
       <c r="Z99" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="2:28" x14ac:dyDescent="0.3">
@@ -1892,10 +1892,10 @@
         <v>-11.99</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB100" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="2:28" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>-14.08</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB101" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="2:28" x14ac:dyDescent="0.3">
@@ -1920,7 +1920,7 @@
         <v>-73.95</v>
       </c>
       <c r="X102" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="2:28" x14ac:dyDescent="0.3">
@@ -1931,7 +1931,7 @@
         <v>-10.199999999999999</v>
       </c>
       <c r="R103" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>-3.87</v>
       </c>
       <c r="R104" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.3">
@@ -1953,7 +1953,7 @@
         <v>-6.3</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.3">
@@ -1964,7 +1964,7 @@
         <v>-5.7</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.3">
@@ -1975,7 +1975,7 @@
         <v>-5.7</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.3">
@@ -1986,7 +1986,7 @@
         <v>-45</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="2:28" x14ac:dyDescent="0.3">
@@ -1997,7 +1997,7 @@
         <v>-6.3</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.3">
@@ -2008,7 +2008,7 @@
         <v>-2.99</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="2:28" x14ac:dyDescent="0.3">
@@ -2019,7 +2019,7 @@
         <v>-6.3</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="2:28" x14ac:dyDescent="0.3">
@@ -2030,7 +2030,7 @@
         <v>-29.98</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.3">
@@ -2041,7 +2041,7 @@
         <v>-2.99</v>
       </c>
       <c r="R113" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.3">
@@ -2052,7 +2052,7 @@
         <v>-11.5</v>
       </c>
       <c r="W114" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.3">
@@ -2063,7 +2063,7 @@
         <v>-75</v>
       </c>
       <c r="X115" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="2:24" x14ac:dyDescent="0.3">
@@ -2074,10 +2074,10 @@
         <v>-74.2</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.3">
@@ -2088,7 +2088,7 @@
         <v>-2.99</v>
       </c>
       <c r="R117" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="2:24" x14ac:dyDescent="0.3">
@@ -2099,10 +2099,10 @@
         <v>-25</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.3">
@@ -2113,7 +2113,7 @@
         <v>-2.99</v>
       </c>
       <c r="R119" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="2:24" x14ac:dyDescent="0.3">
@@ -2124,7 +2124,7 @@
         <v>-9.27</v>
       </c>
       <c r="R120" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.3">
@@ -2135,7 +2135,7 @@
         <v>-36.1</v>
       </c>
       <c r="R121" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="2:24" x14ac:dyDescent="0.3">
@@ -2146,7 +2146,7 @@
         <v>98.98</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.3">
@@ -2157,10 +2157,10 @@
         <v>-14.99</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="2:24" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
         <v>-34.229999999999997</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.3">
@@ -2182,7 +2182,7 @@
         <v>-2.99</v>
       </c>
       <c r="R125" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="2:24" x14ac:dyDescent="0.3">
@@ -2193,7 +2193,7 @@
         <v>-15.97</v>
       </c>
       <c r="W126" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.3">
@@ -2204,7 +2204,7 @@
         <v>1247.8499999999999</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="2:24" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>-31</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129" spans="2:23" x14ac:dyDescent="0.3">
@@ -2226,7 +2226,7 @@
         <v>-2.99</v>
       </c>
       <c r="R129" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="2:23" x14ac:dyDescent="0.3">
@@ -2237,7 +2237,7 @@
         <v>-2.89</v>
       </c>
       <c r="R130" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="2:23" x14ac:dyDescent="0.3">
@@ -2248,7 +2248,7 @@
         <v>-6.27</v>
       </c>
       <c r="R131" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="2:23" x14ac:dyDescent="0.3">
@@ -2259,10 +2259,10 @@
         <v>-150</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="2:23" x14ac:dyDescent="0.3">
@@ -2273,7 +2273,7 @@
         <v>-395</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="2:23" x14ac:dyDescent="0.3">
@@ -2284,7 +2284,7 @@
         <v>-29.95</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="2:23" x14ac:dyDescent="0.3">
@@ -2295,7 +2295,7 @@
         <v>-19.16</v>
       </c>
       <c r="W135" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="2:23" x14ac:dyDescent="0.3">
@@ -2306,7 +2306,7 @@
         <v>-65.5</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="2:23" x14ac:dyDescent="0.3">
@@ -2317,7 +2317,7 @@
         <v>-6.3</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="2:23" x14ac:dyDescent="0.3">
@@ -2328,7 +2328,7 @@
         <v>-9.25</v>
       </c>
       <c r="R138" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="139" spans="2:23" x14ac:dyDescent="0.3">
@@ -2339,7 +2339,7 @@
         <v>1081.47</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="2:23" x14ac:dyDescent="0.3">
@@ -2350,7 +2350,7 @@
         <v>-790</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="2:23" x14ac:dyDescent="0.3">
@@ -2361,7 +2361,7 @@
         <v>-22.5</v>
       </c>
       <c r="W141" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="142" spans="2:23" x14ac:dyDescent="0.3">
@@ -2372,7 +2372,7 @@
         <v>-3.58</v>
       </c>
       <c r="R142" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="2:23" x14ac:dyDescent="0.3">
@@ -2386,7 +2386,7 @@
         <v>11</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="2:23" x14ac:dyDescent="0.3">
@@ -2400,7 +2400,7 @@
         <v>11</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145" spans="2:28" x14ac:dyDescent="0.3">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="H145" s="8"/>
       <c r="X145" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146" spans="2:28" x14ac:dyDescent="0.3">
@@ -2423,7 +2423,7 @@
         <v>-6.3</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="147" spans="2:28" x14ac:dyDescent="0.3">
@@ -2434,7 +2434,7 @@
         <v>-25.13</v>
       </c>
       <c r="W147" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148" spans="2:28" x14ac:dyDescent="0.3">
@@ -2445,7 +2445,7 @@
         <v>-11.21</v>
       </c>
       <c r="W148" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="2:28" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>-6.5</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="2:28" x14ac:dyDescent="0.3">
@@ -2467,7 +2467,7 @@
         <v>-12.29</v>
       </c>
       <c r="R150" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="2:28" x14ac:dyDescent="0.3">
@@ -2478,7 +2478,7 @@
         <v>-19.809999999999999</v>
       </c>
       <c r="S151" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="2:28" x14ac:dyDescent="0.3">
@@ -2489,10 +2489,10 @@
         <v>-19.13</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB152" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="2:28" x14ac:dyDescent="0.3">
@@ -2503,7 +2503,7 @@
         <v>-24.94</v>
       </c>
       <c r="Z153" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="154" spans="2:28" x14ac:dyDescent="0.3">
@@ -2514,7 +2514,7 @@
         <v>-2.75</v>
       </c>
       <c r="R154" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="2:28" x14ac:dyDescent="0.3">
@@ -2525,10 +2525,10 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="2:28" x14ac:dyDescent="0.3">
@@ -2539,7 +2539,7 @@
         <v>-140</v>
       </c>
       <c r="AA156" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157" spans="2:28" x14ac:dyDescent="0.3">
@@ -2550,7 +2550,7 @@
         <v>-20</v>
       </c>
       <c r="T157" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="2:28" x14ac:dyDescent="0.3">
@@ -2561,7 +2561,7 @@
         <v>-32.86</v>
       </c>
       <c r="U158" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="159" spans="2:28" x14ac:dyDescent="0.3">
@@ -2572,10 +2572,10 @@
         <v>-1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160" spans="2:28" x14ac:dyDescent="0.3">
@@ -2586,10 +2586,10 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="2:28" x14ac:dyDescent="0.3">
@@ -2600,7 +2600,7 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="2:28" x14ac:dyDescent="0.3">
@@ -2611,7 +2611,7 @@
         <v>-21.26</v>
       </c>
       <c r="W162" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163" spans="2:28" x14ac:dyDescent="0.3">
@@ -2622,7 +2622,7 @@
         <v>-2.75</v>
       </c>
       <c r="R163" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="164" spans="2:28" x14ac:dyDescent="0.3">
@@ -2633,7 +2633,7 @@
         <v>-530</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="165" spans="2:28" x14ac:dyDescent="0.3">
@@ -2644,7 +2644,7 @@
         <v>-2.73</v>
       </c>
       <c r="R165" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166" spans="2:28" x14ac:dyDescent="0.3">
@@ -2655,7 +2655,7 @@
         <v>665.52</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="167" spans="2:28" x14ac:dyDescent="0.3">
@@ -2669,7 +2669,7 @@
         <v>442.52</v>
       </c>
       <c r="R167" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168" spans="2:28" x14ac:dyDescent="0.3">
@@ -2683,7 +2683,7 @@
         <v>436.22</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="169" spans="2:28" x14ac:dyDescent="0.3">
@@ -2694,10 +2694,10 @@
         <v>-38.28</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB169" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="170" spans="2:28" x14ac:dyDescent="0.3">
@@ -2708,10 +2708,10 @@
         <v>-11.99</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB170" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" spans="2:28" x14ac:dyDescent="0.3">
@@ -2722,7 +2722,7 @@
         <v>-0.54</v>
       </c>
       <c r="R171" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="172" spans="2:28" x14ac:dyDescent="0.3">
@@ -2736,7 +2736,7 @@
         <v>382.39</v>
       </c>
       <c r="R172" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
   <si>
     <t>Betrag</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>AbhebungEC</t>
+  </si>
+  <si>
+    <t>LIDL</t>
+  </si>
+  <si>
+    <t>Balkontisch</t>
+  </si>
+  <si>
+    <t>GMC</t>
   </si>
 </sst>
 </file>
@@ -593,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AC180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B171" sqref="B171:B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2739,6 +2748,110 @@
         <v>69</v>
       </c>
     </row>
+    <row r="173" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B173" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C173" s="1">
+        <v>-27.76</v>
+      </c>
+      <c r="W173" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="174" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B174" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C174" s="1">
+        <v>-10.48</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R174" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="175" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B175" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C175" s="1">
+        <v>-2.59</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R175" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="176" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B176" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C176" s="1">
+        <v>-19.95</v>
+      </c>
+      <c r="W176" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B177" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C177" s="1">
+        <v>-2.99</v>
+      </c>
+      <c r="R177" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="178" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B178" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C178" s="1">
+        <v>-1.79</v>
+      </c>
+      <c r="R178" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="179" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B179" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C179" s="1">
+        <v>-56.9</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B180" s="5">
+        <v>43928</v>
+      </c>
+      <c r="C180" s="1">
+        <v>-14.5</v>
+      </c>
+      <c r="D180" s="1">
+        <v>245.43</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L180" s="8"/>
+      <c r="AB180" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="74">
   <si>
     <t>Betrag</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Saldo</t>
   </si>
   <si>
-    <t>Monat</t>
-  </si>
-  <si>
-    <t>02/2020</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -249,6 +243,9 @@
   </si>
   <si>
     <t>GMC</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -301,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -322,6 +319,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="180"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -602,16 +601,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC180"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B171" sqref="B171:B179"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="7"/>
+    <col min="1" max="1" width="11.5546875" style="13"/>
     <col min="2" max="2" width="11.5546875" style="5"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1"/>
@@ -622,8 +621,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
+      <c r="A1" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -635,84 +634,84 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="L1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="O1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="X1" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
+      <c r="A2" s="13">
+        <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>43832</v>
@@ -721,10 +720,13 @@
         <v>-7.99</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
       <c r="B3" s="5">
         <v>43832</v>
       </c>
@@ -732,13 +734,16 @@
         <v>-24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
       <c r="B4" s="5">
         <v>43832</v>
       </c>
@@ -746,13 +751,16 @@
         <v>-1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
       <c r="B5" s="5">
         <v>43832</v>
       </c>
@@ -760,10 +768,13 @@
         <v>-20</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
       <c r="B6" s="5">
         <v>43832</v>
       </c>
@@ -771,10 +782,13 @@
         <v>-32.86</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
       <c r="B7" s="5">
         <v>43832</v>
       </c>
@@ -782,13 +796,16 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
       <c r="B8" s="5">
         <v>43832</v>
       </c>
@@ -796,10 +813,13 @@
         <v>-530</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
       <c r="B9" s="5">
         <v>43832</v>
       </c>
@@ -807,13 +827,16 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
       <c r="B10" s="5">
         <v>43832</v>
       </c>
@@ -821,13 +844,16 @@
         <v>-23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
       <c r="B11" s="5">
         <v>43832</v>
       </c>
@@ -835,13 +861,16 @@
         <v>-569.34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
       <c r="B12" s="5">
         <v>43832</v>
       </c>
@@ -849,13 +878,16 @@
         <v>-95</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
       <c r="B13" s="5">
         <v>43833</v>
       </c>
@@ -863,10 +895,13 @@
         <v>-91</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
       <c r="B14" s="5">
         <v>43836</v>
       </c>
@@ -874,13 +909,16 @@
         <v>-69.95</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
       <c r="B15" s="5">
         <v>43837</v>
       </c>
@@ -888,13 +926,16 @@
         <v>-327.24</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
       <c r="B16" s="5">
         <v>43837</v>
       </c>
@@ -902,13 +943,16 @@
         <v>-261.77999999999997</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
       <c r="B17" s="5">
         <v>43839</v>
       </c>
@@ -916,10 +960,13 @@
         <v>-14.05</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
       <c r="B18" s="5">
         <v>43839</v>
       </c>
@@ -927,10 +974,13 @@
         <v>-7.49</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
       <c r="B19" s="5">
         <v>43839</v>
       </c>
@@ -938,13 +988,16 @@
         <v>-125.7</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
       <c r="B20" s="5">
         <v>43843</v>
       </c>
@@ -952,10 +1005,13 @@
         <v>-18.95</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
       <c r="B21" s="5">
         <v>43843</v>
       </c>
@@ -963,10 +1019,13 @@
         <v>-52.28</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
       <c r="B22" s="5">
         <v>43843</v>
       </c>
@@ -974,10 +1033,13 @@
         <v>-19.309999999999999</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
       <c r="B23" s="5">
         <v>43843</v>
       </c>
@@ -985,10 +1047,13 @@
         <v>-5.7</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
       <c r="B24" s="5">
         <v>43843</v>
       </c>
@@ -996,10 +1061,13 @@
         <v>-5.7</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
       <c r="B25" s="5">
         <v>43843</v>
       </c>
@@ -1007,10 +1075,13 @@
         <v>-3.6</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
       <c r="B26" s="5">
         <v>43843</v>
       </c>
@@ -1018,10 +1089,13 @@
         <v>-3.6</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
       <c r="B27" s="5">
         <v>43844</v>
       </c>
@@ -1029,13 +1103,16 @@
         <v>-17.14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
       <c r="B28" s="5">
         <v>43845</v>
       </c>
@@ -1043,10 +1120,13 @@
         <v>-23.98</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
       <c r="B29" s="5">
         <v>43845</v>
       </c>
@@ -1054,13 +1134,16 @@
         <v>-31</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
       <c r="B30" s="5">
         <v>43845</v>
       </c>
@@ -1068,13 +1151,16 @@
         <v>-3.14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
       <c r="B31" s="5">
         <v>43846</v>
       </c>
@@ -1082,10 +1168,13 @@
         <v>-29.07</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
       <c r="B32" s="5">
         <v>43846</v>
       </c>
@@ -1093,10 +1182,13 @@
         <v>1247.8499999999999</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>32</v>
+      </c>
       <c r="B33" s="5">
         <v>43850</v>
       </c>
@@ -1104,10 +1196,13 @@
         <v>-66.430000000000007</v>
       </c>
       <c r="W33" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>33</v>
+      </c>
       <c r="B34" s="5">
         <v>43852</v>
       </c>
@@ -1115,10 +1210,13 @@
         <v>-30.17</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>34</v>
+      </c>
       <c r="B35" s="5">
         <v>43853</v>
       </c>
@@ -1126,13 +1224,16 @@
         <v>-61.97</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
+        <v>35</v>
+      </c>
       <c r="B36" s="5">
         <v>43853</v>
       </c>
@@ -1140,10 +1241,13 @@
         <v>-4.28</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>36</v>
+      </c>
       <c r="B37" s="5">
         <v>43853</v>
       </c>
@@ -1151,10 +1255,13 @@
         <v>83.19</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>37</v>
+      </c>
       <c r="B38" s="5">
         <v>43854</v>
       </c>
@@ -1162,10 +1269,13 @@
         <v>-20.98</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>38</v>
+      </c>
       <c r="B39" s="5">
         <v>43854</v>
       </c>
@@ -1173,10 +1283,13 @@
         <v>499.14</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>39</v>
+      </c>
       <c r="B40" s="5">
         <v>43857</v>
       </c>
@@ -1184,10 +1297,13 @@
         <v>-26.31</v>
       </c>
       <c r="AB40" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
       <c r="B41" s="5">
         <v>43857</v>
       </c>
@@ -1195,10 +1311,13 @@
         <v>-38.450000000000003</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>41</v>
+      </c>
       <c r="B42" s="5">
         <v>43857</v>
       </c>
@@ -1206,10 +1325,13 @@
         <v>-6.09</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
       <c r="B43" s="5">
         <v>43857</v>
       </c>
@@ -1217,13 +1339,16 @@
         <v>-13.98</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>43</v>
+      </c>
       <c r="B44" s="5">
         <v>43858</v>
       </c>
@@ -1231,10 +1356,13 @@
         <v>-45.03</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
+        <v>44</v>
+      </c>
       <c r="B45" s="5">
         <v>43858</v>
       </c>
@@ -1242,13 +1370,16 @@
         <v>-636.57000000000005</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
+        <v>45</v>
+      </c>
       <c r="B46" s="5">
         <v>43858</v>
       </c>
@@ -1256,13 +1387,16 @@
         <v>-56.6</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <v>46</v>
+      </c>
       <c r="B47" s="5">
         <v>43858</v>
       </c>
@@ -1270,13 +1404,16 @@
         <v>651</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
+        <v>47</v>
+      </c>
       <c r="B48" s="5">
         <v>43860</v>
       </c>
@@ -1284,10 +1421,13 @@
         <v>-7</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
+        <v>48</v>
+      </c>
       <c r="B49" s="5">
         <v>43860</v>
       </c>
@@ -1295,10 +1435,13 @@
         <v>-408.34</v>
       </c>
       <c r="Z49" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
+        <v>49</v>
+      </c>
       <c r="B50" s="5">
         <v>43860</v>
       </c>
@@ -1306,10 +1449,13 @@
         <v>-767</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
+        <v>50</v>
+      </c>
       <c r="B51" s="5">
         <v>43861</v>
       </c>
@@ -1317,10 +1463,13 @@
         <v>-19.809999999999999</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
+        <v>51</v>
+      </c>
       <c r="B52" s="5">
         <v>43861</v>
       </c>
@@ -1328,10 +1477,13 @@
         <v>-7.99</v>
       </c>
       <c r="AB52" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
+        <v>52</v>
+      </c>
       <c r="B53" s="5">
         <v>43861</v>
       </c>
@@ -1339,13 +1491,16 @@
         <v>-9</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
+        <v>53</v>
+      </c>
       <c r="B54" s="5">
         <v>43864</v>
       </c>
@@ -1353,10 +1508,13 @@
         <v>-20</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>54</v>
+      </c>
       <c r="B55" s="5">
         <v>43864</v>
       </c>
@@ -1364,10 +1522,13 @@
         <v>-32.86</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
       <c r="B56" s="5">
         <v>43864</v>
       </c>
@@ -1375,10 +1536,13 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>56</v>
+      </c>
       <c r="B57" s="5">
         <v>43864</v>
       </c>
@@ -1386,13 +1550,16 @@
         <v>-1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
+        <v>57</v>
+      </c>
       <c r="B58" s="5">
         <v>43864</v>
       </c>
@@ -1400,10 +1567,13 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
+        <v>58</v>
+      </c>
       <c r="B59" s="5">
         <v>43864</v>
       </c>
@@ -1411,10 +1581,13 @@
         <v>-530</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
+        <v>59</v>
+      </c>
       <c r="B60" s="5">
         <v>43864</v>
       </c>
@@ -1422,10 +1595,13 @@
         <v>-17.47</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A61" s="13">
+        <v>60</v>
+      </c>
       <c r="B61" s="5">
         <v>43864</v>
       </c>
@@ -1433,10 +1609,13 @@
         <v>-7.26</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
+        <v>61</v>
+      </c>
       <c r="B62" s="5">
         <v>43864</v>
       </c>
@@ -1444,10 +1623,13 @@
         <v>-61.65</v>
       </c>
       <c r="W62" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
+        <v>62</v>
+      </c>
       <c r="B63" s="5">
         <v>43865</v>
       </c>
@@ -1455,10 +1637,13 @@
         <v>-30</v>
       </c>
       <c r="AB63" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A64" s="13">
+        <v>63</v>
+      </c>
       <c r="B64" s="5">
         <v>43865</v>
       </c>
@@ -1466,13 +1651,16 @@
         <v>-49</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A65" s="13">
+        <v>64</v>
+      </c>
       <c r="B65" s="5">
         <v>43865</v>
       </c>
@@ -1480,10 +1668,13 @@
         <v>-12.98</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A66" s="13">
+        <v>65</v>
+      </c>
       <c r="B66" s="5">
         <v>43867</v>
       </c>
@@ -1491,10 +1682,13 @@
         <v>-14.16</v>
       </c>
       <c r="AB66" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
+        <v>66</v>
+      </c>
       <c r="B67" s="5">
         <v>43868</v>
       </c>
@@ -1502,10 +1696,13 @@
         <v>1081.47</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
+        <v>67</v>
+      </c>
       <c r="B68" s="5">
         <v>43871</v>
       </c>
@@ -1513,10 +1710,13 @@
         <v>-45</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A69" s="13">
+        <v>68</v>
+      </c>
       <c r="B69" s="5">
         <v>43871</v>
       </c>
@@ -1524,10 +1724,13 @@
         <v>-135</v>
       </c>
       <c r="X69" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B70" s="5">
         <v>43871</v>
       </c>
@@ -1535,10 +1738,13 @@
         <v>-12.24</v>
       </c>
       <c r="R70" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
+        <v>70</v>
+      </c>
       <c r="B71" s="5">
         <v>43872</v>
       </c>
@@ -1546,13 +1752,16 @@
         <v>-210</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
+        <v>71</v>
+      </c>
       <c r="B72" s="5">
         <v>43872</v>
       </c>
@@ -1560,10 +1769,13 @@
         <v>-10.96</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A73" s="13">
+        <v>72</v>
+      </c>
       <c r="B73" s="5">
         <v>43872</v>
       </c>
@@ -1571,13 +1783,16 @@
         <v>-29.98</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
+        <v>73</v>
+      </c>
       <c r="B74" s="5">
         <v>43875</v>
       </c>
@@ -1585,13 +1800,16 @@
         <v>-13.5</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A75" s="13">
+        <v>74</v>
+      </c>
       <c r="B75" s="5">
         <v>43875</v>
       </c>
@@ -1599,13 +1817,16 @@
         <v>-5.38</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R75" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
+        <v>75</v>
+      </c>
       <c r="B76" s="5">
         <v>43878</v>
       </c>
@@ -1613,13 +1834,16 @@
         <v>-31</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P76" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A77" s="13">
+        <v>76</v>
+      </c>
       <c r="B77" s="5">
         <v>43878</v>
       </c>
@@ -1627,10 +1851,13 @@
         <v>-4.43</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A78" s="13">
+        <v>77</v>
+      </c>
       <c r="B78" s="5">
         <v>43879</v>
       </c>
@@ -1638,13 +1865,16 @@
         <v>-19.13</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB78" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A79" s="13">
+        <v>78</v>
+      </c>
       <c r="B79" s="5">
         <v>43879</v>
       </c>
@@ -1652,10 +1882,13 @@
         <v>-150</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A80" s="13">
+        <v>79</v>
+      </c>
       <c r="B80" s="5">
         <v>43882</v>
       </c>
@@ -1663,10 +1896,13 @@
         <v>-43.64</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A81" s="13">
+        <v>80</v>
+      </c>
       <c r="B81" s="5">
         <v>43882</v>
       </c>
@@ -1674,10 +1910,13 @@
         <v>-30.61</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A82" s="13">
+        <v>81</v>
+      </c>
       <c r="B82" s="5">
         <v>43885</v>
       </c>
@@ -1685,10 +1924,13 @@
         <v>1331.04</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A83" s="13">
+        <v>82</v>
+      </c>
       <c r="B83" s="5">
         <v>43887</v>
       </c>
@@ -1696,10 +1938,13 @@
         <v>-6.5</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A84" s="13">
+        <v>83</v>
+      </c>
       <c r="B84" s="5">
         <v>43887</v>
       </c>
@@ -1707,13 +1952,16 @@
         <v>-363.54</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A85" s="13">
+        <v>84</v>
+      </c>
       <c r="B85" s="5">
         <v>43889</v>
       </c>
@@ -1721,10 +1969,13 @@
         <v>-6.92</v>
       </c>
       <c r="R85" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A86" s="13">
+        <v>85</v>
+      </c>
       <c r="B86" s="5">
         <v>43889</v>
       </c>
@@ -1732,10 +1983,13 @@
         <v>-12.6</v>
       </c>
       <c r="R86" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A87" s="13">
+        <v>86</v>
+      </c>
       <c r="B87" s="5">
         <v>43889</v>
       </c>
@@ -1743,10 +1997,13 @@
         <v>332.76</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A88" s="13">
+        <v>87</v>
+      </c>
       <c r="B88" s="5">
         <v>43889</v>
       </c>
@@ -1754,13 +2011,16 @@
         <v>-4</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A89" s="13">
+        <v>88</v>
+      </c>
       <c r="B89" s="5">
         <v>43892</v>
       </c>
@@ -1768,10 +2028,13 @@
         <v>-395</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A90" s="13">
+        <v>89</v>
+      </c>
       <c r="B90" s="5">
         <v>43892</v>
       </c>
@@ -1779,10 +2042,13 @@
         <v>-20</v>
       </c>
       <c r="T90" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A91" s="13">
+        <v>90</v>
+      </c>
       <c r="B91" s="5">
         <v>43892</v>
       </c>
@@ -1790,10 +2056,13 @@
         <v>-32.86</v>
       </c>
       <c r="U91" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A92" s="13">
+        <v>91</v>
+      </c>
       <c r="B92" s="5">
         <v>43892</v>
       </c>
@@ -1801,13 +2070,16 @@
         <v>-1</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A93" s="13">
+        <v>92</v>
+      </c>
       <c r="B93" s="5">
         <v>43892</v>
       </c>
@@ -1815,13 +2087,16 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A94" s="13">
+        <v>93</v>
+      </c>
       <c r="B94" s="5">
         <v>43892</v>
       </c>
@@ -1829,10 +2104,13 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A95" s="13">
+        <v>94</v>
+      </c>
       <c r="B95" s="5">
         <v>43892</v>
       </c>
@@ -1840,10 +2118,13 @@
         <v>-19.809999999999999</v>
       </c>
       <c r="S95" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A96" s="13">
+        <v>95</v>
+      </c>
       <c r="B96" s="5">
         <v>43892</v>
       </c>
@@ -1851,10 +2132,13 @@
         <v>-530</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A97" s="13">
+        <v>96</v>
+      </c>
       <c r="B97" s="5">
         <v>43892</v>
       </c>
@@ -1862,13 +2146,16 @@
         <v>421.27</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AB97" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A98" s="13">
+        <v>97</v>
+      </c>
       <c r="B98" s="5">
         <v>43892</v>
       </c>
@@ -1876,13 +2163,16 @@
         <v>-276.62</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A99" s="13">
+        <v>98</v>
+      </c>
       <c r="B99" s="5">
         <v>43893</v>
       </c>
@@ -1890,10 +2180,13 @@
         <v>-97.75</v>
       </c>
       <c r="Z99" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A100" s="13">
+        <v>99</v>
+      </c>
       <c r="B100" s="5">
         <v>43893</v>
       </c>
@@ -1901,13 +2194,16 @@
         <v>-11.99</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB100" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A101" s="13">
+        <v>100</v>
+      </c>
       <c r="B101" s="5">
         <v>43896</v>
       </c>
@@ -1915,13 +2211,16 @@
         <v>-14.08</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AB101" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A102" s="13">
+        <v>101</v>
+      </c>
       <c r="B102" s="5">
         <v>43899</v>
       </c>
@@ -1929,10 +2228,13 @@
         <v>-73.95</v>
       </c>
       <c r="X102" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A103" s="13">
+        <v>102</v>
+      </c>
       <c r="B103" s="5">
         <v>43899</v>
       </c>
@@ -1940,10 +2242,13 @@
         <v>-10.199999999999999</v>
       </c>
       <c r="R103" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A104" s="13">
+        <v>103</v>
+      </c>
       <c r="B104" s="5">
         <v>43899</v>
       </c>
@@ -1951,10 +2256,13 @@
         <v>-3.87</v>
       </c>
       <c r="R104" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A105" s="13">
+        <v>104</v>
+      </c>
       <c r="B105" s="5">
         <v>43899</v>
       </c>
@@ -1962,10 +2270,13 @@
         <v>-6.3</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A106" s="13">
+        <v>105</v>
+      </c>
       <c r="B106" s="5">
         <v>43899</v>
       </c>
@@ -1973,10 +2284,13 @@
         <v>-5.7</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A107" s="13">
+        <v>106</v>
+      </c>
       <c r="B107" s="5">
         <v>43899</v>
       </c>
@@ -1984,10 +2298,13 @@
         <v>-5.7</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A108" s="13">
+        <v>107</v>
+      </c>
       <c r="B108" s="5">
         <v>43900</v>
       </c>
@@ -1995,10 +2312,13 @@
         <v>-45</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A109" s="13">
+        <v>108</v>
+      </c>
       <c r="B109" s="5">
         <v>43901</v>
       </c>
@@ -2006,10 +2326,13 @@
         <v>-6.3</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A110" s="13">
+        <v>109</v>
+      </c>
       <c r="B110" s="5">
         <v>43902</v>
       </c>
@@ -2017,10 +2340,13 @@
         <v>-2.99</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A111" s="13">
+        <v>110</v>
+      </c>
       <c r="B111" s="5">
         <v>43902</v>
       </c>
@@ -2028,10 +2354,13 @@
         <v>-6.3</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A112" s="13">
+        <v>111</v>
+      </c>
       <c r="B112" s="5">
         <v>43903</v>
       </c>
@@ -2039,10 +2368,13 @@
         <v>-29.98</v>
       </c>
       <c r="Q112" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A113" s="13">
+        <v>112</v>
+      </c>
       <c r="B113" s="5">
         <v>43903</v>
       </c>
@@ -2050,10 +2382,13 @@
         <v>-2.99</v>
       </c>
       <c r="R113" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A114" s="13">
+        <v>113</v>
+      </c>
       <c r="B114" s="5">
         <v>43903</v>
       </c>
@@ -2061,10 +2396,13 @@
         <v>-11.5</v>
       </c>
       <c r="W114" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A115" s="13">
+        <v>114</v>
+      </c>
       <c r="B115" s="5">
         <v>43903</v>
       </c>
@@ -2072,10 +2410,13 @@
         <v>-75</v>
       </c>
       <c r="X115" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A116" s="13">
+        <v>115</v>
+      </c>
       <c r="B116" s="5">
         <v>43906</v>
       </c>
@@ -2083,13 +2424,16 @@
         <v>-74.2</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A117" s="13">
+        <v>116</v>
+      </c>
       <c r="B117" s="5">
         <v>43906</v>
       </c>
@@ -2097,10 +2441,13 @@
         <v>-2.99</v>
       </c>
       <c r="R117" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A118" s="13">
+        <v>117</v>
+      </c>
       <c r="B118" s="5">
         <v>43906</v>
       </c>
@@ -2108,13 +2455,16 @@
         <v>-25</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A119" s="13">
+        <v>118</v>
+      </c>
       <c r="B119" s="5">
         <v>43906</v>
       </c>
@@ -2122,10 +2472,13 @@
         <v>-2.99</v>
       </c>
       <c r="R119" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A120" s="13">
+        <v>119</v>
+      </c>
       <c r="B120" s="5">
         <v>43906</v>
       </c>
@@ -2133,10 +2486,13 @@
         <v>-9.27</v>
       </c>
       <c r="R120" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A121" s="13">
+        <v>120</v>
+      </c>
       <c r="B121" s="5">
         <v>43906</v>
       </c>
@@ -2144,10 +2500,13 @@
         <v>-36.1</v>
       </c>
       <c r="R121" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A122" s="13">
+        <v>121</v>
+      </c>
       <c r="B122" s="5">
         <v>43906</v>
       </c>
@@ -2155,10 +2514,13 @@
         <v>98.98</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="123" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A123" s="13">
+        <v>122</v>
+      </c>
       <c r="B123" s="5">
         <v>43907</v>
       </c>
@@ -2166,13 +2528,16 @@
         <v>-14.99</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A124" s="13">
+        <v>123</v>
+      </c>
       <c r="B124" s="5">
         <v>43907</v>
       </c>
@@ -2180,10 +2545,13 @@
         <v>-34.229999999999997</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A125" s="13">
+        <v>124</v>
+      </c>
       <c r="B125" s="5">
         <v>43907</v>
       </c>
@@ -2191,10 +2559,13 @@
         <v>-2.99</v>
       </c>
       <c r="R125" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A126" s="13">
+        <v>125</v>
+      </c>
       <c r="B126" s="5">
         <v>43907</v>
       </c>
@@ -2202,10 +2573,13 @@
         <v>-15.97</v>
       </c>
       <c r="W126" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A127" s="13">
+        <v>126</v>
+      </c>
       <c r="B127" s="5">
         <v>43907</v>
       </c>
@@ -2213,10 +2587,13 @@
         <v>1247.8499999999999</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="128" spans="2:24" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A128" s="13">
+        <v>127</v>
+      </c>
       <c r="B128" s="5">
         <v>43908</v>
       </c>
@@ -2224,10 +2601,13 @@
         <v>-31</v>
       </c>
       <c r="P128" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A129" s="13">
+        <v>128</v>
+      </c>
       <c r="B129" s="5">
         <v>43908</v>
       </c>
@@ -2235,10 +2615,13 @@
         <v>-2.99</v>
       </c>
       <c r="R129" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A130" s="13">
+        <v>129</v>
+      </c>
       <c r="B130" s="5">
         <v>43908</v>
       </c>
@@ -2246,10 +2629,13 @@
         <v>-2.89</v>
       </c>
       <c r="R130" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A131" s="13">
+        <v>130</v>
+      </c>
       <c r="B131" s="5">
         <v>43908</v>
       </c>
@@ -2257,10 +2643,13 @@
         <v>-6.27</v>
       </c>
       <c r="R131" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A132" s="13">
+        <v>131</v>
+      </c>
       <c r="B132" s="5">
         <v>43908</v>
       </c>
@@ -2268,13 +2657,16 @@
         <v>-150</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A133" s="13">
+        <v>132</v>
+      </c>
       <c r="B133" s="5">
         <v>43908</v>
       </c>
@@ -2282,10 +2674,13 @@
         <v>-395</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A134" s="13">
+        <v>133</v>
+      </c>
       <c r="B134" s="5">
         <v>43913</v>
       </c>
@@ -2293,10 +2688,13 @@
         <v>-29.95</v>
       </c>
       <c r="Q134" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A135" s="13">
+        <v>134</v>
+      </c>
       <c r="B135" s="5">
         <v>43913</v>
       </c>
@@ -2304,10 +2702,13 @@
         <v>-19.16</v>
       </c>
       <c r="W135" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="136" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A136" s="13">
+        <v>135</v>
+      </c>
       <c r="B136" s="5">
         <v>43914</v>
       </c>
@@ -2315,10 +2716,13 @@
         <v>-65.5</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A137" s="13">
+        <v>136</v>
+      </c>
       <c r="B137" s="5">
         <v>43914</v>
       </c>
@@ -2326,10 +2730,13 @@
         <v>-6.3</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A138" s="13">
+        <v>137</v>
+      </c>
       <c r="B138" s="5">
         <v>43915</v>
       </c>
@@ -2337,10 +2744,13 @@
         <v>-9.25</v>
       </c>
       <c r="R138" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A139" s="13">
+        <v>138</v>
+      </c>
       <c r="B139" s="5">
         <v>43915</v>
       </c>
@@ -2348,10 +2758,13 @@
         <v>1081.47</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A140" s="13">
+        <v>139</v>
+      </c>
       <c r="B140" s="5">
         <v>43915</v>
       </c>
@@ -2359,10 +2772,13 @@
         <v>-790</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A141" s="13">
+        <v>140</v>
+      </c>
       <c r="B141" s="5">
         <v>43916</v>
       </c>
@@ -2370,10 +2786,13 @@
         <v>-22.5</v>
       </c>
       <c r="W141" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A142" s="13">
+        <v>141</v>
+      </c>
       <c r="B142" s="5">
         <v>43916</v>
       </c>
@@ -2381,10 +2800,13 @@
         <v>-3.58</v>
       </c>
       <c r="R142" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A143" s="13">
+        <v>142</v>
+      </c>
       <c r="B143" s="5">
         <v>43917</v>
       </c>
@@ -2392,13 +2814,16 @@
         <v>1882</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A144" s="13">
+        <v>143</v>
+      </c>
       <c r="B144" s="5">
         <v>43917</v>
       </c>
@@ -2406,13 +2831,16 @@
         <v>-1820</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="145" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A145" s="13">
+        <v>144</v>
+      </c>
       <c r="B145" s="5">
         <v>43920</v>
       </c>
@@ -2421,10 +2849,13 @@
       </c>
       <c r="H145" s="8"/>
       <c r="X145" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="146" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A146" s="13">
+        <v>145</v>
+      </c>
       <c r="B146" s="5">
         <v>43920</v>
       </c>
@@ -2432,10 +2863,13 @@
         <v>-6.3</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="147" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A147" s="13">
+        <v>146</v>
+      </c>
       <c r="B147" s="5">
         <v>43920</v>
       </c>
@@ -2443,10 +2877,13 @@
         <v>-25.13</v>
       </c>
       <c r="W147" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="148" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A148" s="13">
+        <v>147</v>
+      </c>
       <c r="B148" s="5">
         <v>43920</v>
       </c>
@@ -2454,10 +2891,13 @@
         <v>-11.21</v>
       </c>
       <c r="W148" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A149" s="13">
+        <v>148</v>
+      </c>
       <c r="B149" s="5">
         <v>43920</v>
       </c>
@@ -2465,10 +2905,13 @@
         <v>-6.5</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="150" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A150" s="13">
+        <v>149</v>
+      </c>
       <c r="B150" s="5">
         <v>43920</v>
       </c>
@@ -2476,10 +2919,13 @@
         <v>-12.29</v>
       </c>
       <c r="R150" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="151" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A151" s="13">
+        <v>150</v>
+      </c>
       <c r="B151" s="5">
         <v>43921</v>
       </c>
@@ -2487,10 +2933,13 @@
         <v>-19.809999999999999</v>
       </c>
       <c r="S151" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A152" s="13">
+        <v>151</v>
+      </c>
       <c r="B152" s="5">
         <v>43861</v>
       </c>
@@ -2498,13 +2947,16 @@
         <v>-19.13</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB152" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="153" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A153" s="13">
+        <v>152</v>
+      </c>
       <c r="B153" s="5">
         <v>43921</v>
       </c>
@@ -2512,10 +2964,13 @@
         <v>-24.94</v>
       </c>
       <c r="Z153" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="154" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A154" s="13">
+        <v>153</v>
+      </c>
       <c r="B154" s="5">
         <v>43921</v>
       </c>
@@ -2523,10 +2978,13 @@
         <v>-2.75</v>
       </c>
       <c r="R154" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="155" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A155" s="13">
+        <v>154</v>
+      </c>
       <c r="B155" s="5">
         <v>43861</v>
       </c>
@@ -2534,13 +2992,16 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="156" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A156" s="13">
+        <v>155</v>
+      </c>
       <c r="B156" s="5">
         <v>43922</v>
       </c>
@@ -2548,10 +3009,13 @@
         <v>-140</v>
       </c>
       <c r="AA156" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="157" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A157" s="13">
+        <v>156</v>
+      </c>
       <c r="B157" s="5">
         <v>43922</v>
       </c>
@@ -2559,10 +3023,13 @@
         <v>-20</v>
       </c>
       <c r="T157" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="158" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A158" s="13">
+        <v>157</v>
+      </c>
       <c r="B158" s="5">
         <v>43922</v>
       </c>
@@ -2570,10 +3037,13 @@
         <v>-32.86</v>
       </c>
       <c r="U158" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="159" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A159" s="13">
+        <v>158</v>
+      </c>
       <c r="B159" s="5">
         <v>43922</v>
       </c>
@@ -2581,13 +3051,16 @@
         <v>-1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="160" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A160" s="13">
+        <v>159</v>
+      </c>
       <c r="B160" s="5">
         <v>43922</v>
       </c>
@@ -2595,13 +3068,16 @@
         <v>-19.899999999999999</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="161" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A161" s="13">
+        <v>160</v>
+      </c>
       <c r="B161" s="5">
         <v>43922</v>
       </c>
@@ -2609,10 +3085,13 @@
         <v>-35.409999999999997</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="162" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A162" s="13">
+        <v>161</v>
+      </c>
       <c r="B162" s="5">
         <v>43922</v>
       </c>
@@ -2620,10 +3099,13 @@
         <v>-21.26</v>
       </c>
       <c r="W162" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="163" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A163" s="13">
+        <v>162</v>
+      </c>
       <c r="B163" s="5">
         <v>43922</v>
       </c>
@@ -2631,10 +3113,13 @@
         <v>-2.75</v>
       </c>
       <c r="R163" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="164" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A164" s="13">
+        <v>163</v>
+      </c>
       <c r="B164" s="5">
         <v>43923</v>
       </c>
@@ -2642,10 +3127,13 @@
         <v>-530</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="165" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A165" s="13">
+        <v>164</v>
+      </c>
       <c r="B165" s="5">
         <v>43923</v>
       </c>
@@ -2653,10 +3141,13 @@
         <v>-2.73</v>
       </c>
       <c r="R165" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="166" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A166" s="13">
+        <v>165</v>
+      </c>
       <c r="B166" s="5">
         <v>43923</v>
       </c>
@@ -2664,10 +3155,13 @@
         <v>665.52</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="167" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A167" s="13">
+        <v>166</v>
+      </c>
       <c r="B167" s="5">
         <v>43924</v>
       </c>
@@ -2678,10 +3172,13 @@
         <v>442.52</v>
       </c>
       <c r="R167" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="168" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A168" s="13">
+        <v>167</v>
+      </c>
       <c r="B168" s="5">
         <v>43924</v>
       </c>
@@ -2692,10 +3189,13 @@
         <v>436.22</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="169" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A169" s="13">
+        <v>168</v>
+      </c>
       <c r="B169" s="5">
         <v>43927</v>
       </c>
@@ -2703,13 +3203,16 @@
         <v>-38.28</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AB169" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="170" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A170" s="13">
+        <v>169</v>
+      </c>
       <c r="B170" s="5">
         <v>43927</v>
       </c>
@@ -2717,13 +3220,16 @@
         <v>-11.99</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB170" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="171" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A171" s="13">
+        <v>170</v>
+      </c>
       <c r="B171" s="5">
         <v>43927</v>
       </c>
@@ -2731,10 +3237,13 @@
         <v>-0.54</v>
       </c>
       <c r="R171" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="172" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A172" s="13">
+        <v>171</v>
+      </c>
       <c r="B172" s="5">
         <v>43927</v>
       </c>
@@ -2745,10 +3254,13 @@
         <v>382.39</v>
       </c>
       <c r="R172" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="173" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A173" s="13">
+        <v>172</v>
+      </c>
       <c r="B173" s="5">
         <v>43927</v>
       </c>
@@ -2756,10 +3268,13 @@
         <v>-27.76</v>
       </c>
       <c r="W173" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="174" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A174" s="13">
+        <v>173</v>
+      </c>
       <c r="B174" s="5">
         <v>43927</v>
       </c>
@@ -2767,13 +3282,16 @@
         <v>-10.48</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R174" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="175" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A175" s="13">
+        <v>174</v>
+      </c>
       <c r="B175" s="5">
         <v>43927</v>
       </c>
@@ -2781,13 +3299,16 @@
         <v>-2.59</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R175" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="176" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A176" s="13">
+        <v>175</v>
+      </c>
       <c r="B176" s="5">
         <v>43927</v>
       </c>
@@ -2795,10 +3316,13 @@
         <v>-19.95</v>
       </c>
       <c r="W176" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="177" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A177" s="13">
+        <v>176</v>
+      </c>
       <c r="B177" s="5">
         <v>43927</v>
       </c>
@@ -2806,10 +3330,13 @@
         <v>-2.99</v>
       </c>
       <c r="R177" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="178" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A178" s="13">
+        <v>177</v>
+      </c>
       <c r="B178" s="5">
         <v>43927</v>
       </c>
@@ -2817,10 +3344,13 @@
         <v>-1.79</v>
       </c>
       <c r="R178" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A179" s="13">
+        <v>178</v>
+      </c>
       <c r="B179" s="5">
         <v>43927</v>
       </c>
@@ -2828,13 +3358,16 @@
         <v>-56.9</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="180" spans="2:28" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A180" s="13">
+        <v>179</v>
+      </c>
       <c r="B180" s="5">
         <v>43928</v>
       </c>
@@ -2845,11 +3378,42 @@
         <v>245.43</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L180" s="8"/>
       <c r="AB180" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A181" s="13">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5">
+        <v>43928</v>
+      </c>
+      <c r="C181" s="1">
+        <v>-8.31</v>
+      </c>
+      <c r="R181" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A182" s="13">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5">
+        <v>43928</v>
+      </c>
+      <c r="C182" s="1">
+        <v>-25.81</v>
+      </c>
+      <c r="D182" s="1">
+        <v>211.31</v>
+      </c>
+      <c r="W182" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="74">
   <si>
     <t>Betrag</t>
   </si>
@@ -601,11 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3416,6 +3416,37 @@
         <v>67</v>
       </c>
     </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A183" s="13">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5">
+        <v>43929</v>
+      </c>
+      <c r="C183" s="1">
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="R183" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A184" s="13">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5">
+        <v>43930</v>
+      </c>
+      <c r="C184" s="1">
+        <v>-45</v>
+      </c>
+      <c r="D184" s="1">
+        <v>161.33000000000001</v>
+      </c>
+      <c r="M184" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -605,7 +605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
+      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="74">
   <si>
     <t>Betrag</t>
   </si>
@@ -601,11 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC184"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R185" sqref="R185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3447,6 +3447,23 @@
         <v>67</v>
       </c>
     </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A185" s="13">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5">
+        <v>43930</v>
+      </c>
+      <c r="C185" s="1">
+        <v>-3.17</v>
+      </c>
+      <c r="D185" s="1">
+        <v>158.16</v>
+      </c>
+      <c r="R185" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="74">
   <si>
     <t>Betrag</t>
   </si>
@@ -601,11 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R185" sqref="R185"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3464,6 +3464,20 @@
         <v>67</v>
       </c>
     </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A186" s="13">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5">
+        <v>43930</v>
+      </c>
+      <c r="C186" s="1">
+        <v>-2.99</v>
+      </c>
+      <c r="R186" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="74">
   <si>
     <t>Betrag</t>
   </si>
@@ -601,11 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3478,6 +3478,23 @@
         <v>67</v>
       </c>
     </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A187" s="13">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C187" s="1">
+        <v>124.41</v>
+      </c>
+      <c r="D187" s="1">
+        <v>279.58</v>
+      </c>
+      <c r="AB187" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -605,7 +605,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D188" sqref="D188"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="76">
   <si>
     <t>Betrag</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>VISA Abrechnung</t>
+  </si>
+  <si>
+    <t>Miete Proberaum</t>
   </si>
 </sst>
 </file>
@@ -604,8 +610,8 @@
   <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,6 +1440,9 @@
       <c r="C49" s="1">
         <v>-408.34</v>
       </c>
+      <c r="E49" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="Z49" s="8" t="s">
         <v>67</v>
       </c>
@@ -1462,6 +1471,9 @@
       <c r="C51" s="1">
         <v>-19.809999999999999</v>
       </c>
+      <c r="E51" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="S51" s="8" t="s">
         <v>67</v>
       </c>
@@ -2117,6 +2129,9 @@
       <c r="C95" s="1">
         <v>-19.809999999999999</v>
       </c>
+      <c r="E95" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="S95" s="8" t="s">
         <v>67</v>
       </c>
@@ -2931,6 +2946,9 @@
       </c>
       <c r="C151" s="1">
         <v>-19.809999999999999</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="S151" s="8" t="s">
         <v>67</v>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -610,8 +610,8 @@
   <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="79">
   <si>
     <t>Betrag</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>Miete Proberaum</t>
+  </si>
+  <si>
+    <t>11.03.-23.03.</t>
+  </si>
+  <si>
+    <t>26.02.-10.03.</t>
+  </si>
+  <si>
+    <t>06.02.-21.02.</t>
   </si>
 </sst>
 </file>
@@ -610,8 +619,8 @@
   <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1187,6 +1196,9 @@
       <c r="C32" s="1">
         <v>1247.8499999999999</v>
       </c>
+      <c r="E32" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H32" s="8" t="s">
         <v>67</v>
       </c>
@@ -1935,6 +1947,9 @@
       <c r="C82" s="1">
         <v>1331.04</v>
       </c>
+      <c r="E82" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="H82" s="8" t="s">
         <v>67</v>
       </c>
@@ -2771,6 +2786,9 @@
       </c>
       <c r="C139" s="1">
         <v>1081.47</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="H139" s="8" t="s">
         <v>67</v>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -619,8 +619,8 @@
   <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188:XFD188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +768,7 @@
       <c r="E4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -813,7 +813,7 @@
       <c r="E7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
       <c r="E10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       <c r="E57" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="V57" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -2099,11 +2099,11 @@
       <c r="E92" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V92" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -2116,11 +2116,11 @@
       <c r="E93" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V93" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -3089,7 +3089,7 @@
       <c r="E159" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="V159" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       <c r="E160" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="V160" s="8" t="s">
         <v>67</v>
       </c>
     </row>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="80">
   <si>
     <t>Betrag</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>06.02.-21.02.</t>
+  </si>
+  <si>
+    <t>Altersvorsorge</t>
   </si>
 </sst>
 </file>
@@ -616,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC187"/>
+  <dimension ref="A1:AD190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A188" sqref="A188:XFD188"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R190" sqref="R190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,10 +635,10 @@
     <col min="5" max="5" width="27.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="30" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -723,8 +726,11 @@
       <c r="AC1" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD1" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -738,7 +744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -755,7 +761,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -772,7 +778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -786,7 +792,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -800,7 +806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -817,7 +823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -831,7 +837,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -848,7 +854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -865,7 +871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -882,7 +888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -899,7 +905,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -913,7 +919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -930,7 +936,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -947,7 +953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3527,7 +3533,53 @@
       <c r="D187" s="1">
         <v>279.58</v>
       </c>
+      <c r="R187" s="8"/>
       <c r="AB187" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A188" s="13">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C188" s="1">
+        <v>-5.4</v>
+      </c>
+      <c r="R188" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A189" s="13">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C189" s="1">
+        <v>-93.04</v>
+      </c>
+      <c r="R189" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A190" s="13">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C190" s="1">
+        <v>-1.49</v>
+      </c>
+      <c r="D190" s="1">
+        <v>179.65</v>
+      </c>
+      <c r="R190" s="8" t="s">
         <v>67</v>
       </c>
     </row>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="81">
   <si>
     <t>Betrag</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Altersvorsorge</t>
+  </si>
+  <si>
+    <t>AutoVersicherung</t>
   </si>
 </sst>
 </file>
@@ -619,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD190"/>
+  <dimension ref="A1:AE190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R190" sqref="R190"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,10 +638,10 @@
     <col min="5" max="5" width="27.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="30" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="31" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -729,8 +732,11 @@
       <c r="AD1" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE1" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -744,7 +750,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -761,7 +767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -778,7 +784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -792,7 +798,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -806,7 +812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -823,7 +829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -837,7 +843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -854,7 +860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -871,7 +877,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -884,11 +890,11 @@
       <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AC11" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -905,7 +911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -919,7 +925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -936,7 +942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -953,7 +959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="87">
   <si>
     <t>Betrag</t>
   </si>
@@ -267,6 +267,24 @@
   </si>
   <si>
     <t>AutoVersicherung</t>
+  </si>
+  <si>
+    <t>Targobank (Rate Waschtrockner)</t>
+  </si>
+  <si>
+    <t>GTA 5 Upgrade Timi</t>
+  </si>
+  <si>
+    <t>Rückzahlung Paypal Dashlight Timi</t>
+  </si>
+  <si>
+    <t>Rückzahlung Paypal Dashlight Timi Kabel</t>
+  </si>
+  <si>
+    <t>Parship</t>
+  </si>
+  <si>
+    <t>SocialNetworking</t>
   </si>
 </sst>
 </file>
@@ -622,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE190"/>
+  <dimension ref="A1:AF204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K191" sqref="K191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,13 +653,13 @@
     <col min="2" max="2" width="11.5546875" style="5"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="27.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="31" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="32" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -735,8 +753,11 @@
       <c r="AE1" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF1" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -750,7 +771,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -767,7 +788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -784,7 +805,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -798,7 +819,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -812,7 +833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -829,7 +850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -843,7 +864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -860,7 +881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -877,7 +898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -894,7 +915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -911,7 +932,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -925,7 +946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -942,7 +963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -959,7 +980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -3586,6 +3607,220 @@
         <v>179.65</v>
       </c>
       <c r="R190" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A191" s="13">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C191" s="1">
+        <v>-7.49</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A192" s="13">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C192" s="1">
+        <v>-22.76</v>
+      </c>
+      <c r="W192" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A193" s="13">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C193" s="1">
+        <v>-7.97</v>
+      </c>
+      <c r="K193" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A194" s="13">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C194" s="1">
+        <v>-5.19</v>
+      </c>
+      <c r="R194" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A195" s="13">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C195" s="1">
+        <v>582.33000000000004</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A196" s="13">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C196" s="1">
+        <v>-3.87</v>
+      </c>
+      <c r="R196" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A197" s="13">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C197" s="1">
+        <v>-1.39</v>
+      </c>
+      <c r="R197" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A198" s="13">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C198" s="1">
+        <v>-6.6</v>
+      </c>
+      <c r="K198" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A199" s="13">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C199" s="1">
+        <v>-8.93</v>
+      </c>
+      <c r="R199" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A200" s="13">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5">
+        <v>43936</v>
+      </c>
+      <c r="C200" s="1">
+        <v>-74.2</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L200" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A201" s="13">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5">
+        <v>43936</v>
+      </c>
+      <c r="C201" s="1">
+        <v>-9.99</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB201" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A202" s="13">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5">
+        <v>43936</v>
+      </c>
+      <c r="C202" s="1">
+        <v>-194.67</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB202" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A203" s="13">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5">
+        <v>43936</v>
+      </c>
+      <c r="C203" s="1">
+        <v>-161.69999999999999</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF203" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="204" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A204" s="13">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5">
+        <v>43936</v>
+      </c>
+      <c r="C204" s="1">
+        <v>-5.33</v>
+      </c>
+      <c r="D204" s="1">
+        <v>251.89</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB204" s="8" t="s">
         <v>67</v>
       </c>
     </row>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="98">
   <si>
     <t>Betrag</t>
   </si>
@@ -285,6 +285,39 @@
   </si>
   <si>
     <t>SocialNetworking</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Alarmierung</t>
+  </si>
+  <si>
+    <t>WALDEK</t>
+  </si>
+  <si>
+    <t>TARGOBANK</t>
+  </si>
+  <si>
+    <t>AWO</t>
+  </si>
+  <si>
+    <t>OTTENBREIT</t>
+  </si>
+  <si>
+    <t>SBK</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>XXLUTZ</t>
+  </si>
+  <si>
+    <t>SATURN</t>
+  </si>
+  <si>
+    <t>EWE</t>
   </si>
 </sst>
 </file>
@@ -640,11 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF204"/>
+  <dimension ref="A1:AH204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K191" sqref="K191"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,13 +686,15 @@
     <col min="2" max="2" width="11.5546875" style="5"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="33.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="32" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="34" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -672,92 +707,98 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -767,11 +808,11 @@
       <c r="C2" s="1">
         <v>-7.99</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -781,14 +822,14 @@
       <c r="C3" s="1">
         <v>-24</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD3" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -798,14 +839,14 @@
       <c r="C4" s="1">
         <v>-1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -815,11 +856,11 @@
       <c r="C5" s="1">
         <v>-20</v>
       </c>
-      <c r="T5" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="V5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -829,11 +870,11 @@
       <c r="C6" s="1">
         <v>-32.86</v>
       </c>
-      <c r="U6" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="W6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -843,14 +884,14 @@
       <c r="C7" s="1">
         <v>-19.899999999999999</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X7" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -860,11 +901,11 @@
       <c r="C8" s="1">
         <v>-530</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="K8" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -874,14 +915,14 @@
       <c r="C9" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="N9" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -891,14 +932,14 @@
       <c r="C10" s="1">
         <v>-23</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="O10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -908,14 +949,14 @@
       <c r="C11" s="1">
         <v>-569.34</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AE11" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -925,14 +966,14 @@
       <c r="C12" s="1">
         <v>-95</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="O12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -942,11 +983,11 @@
       <c r="C13" s="1">
         <v>-91</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="O13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -956,14 +997,14 @@
       <c r="C14" s="1">
         <v>-69.95</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AB14" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD14" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -973,14 +1014,14 @@
       <c r="C15" s="1">
         <v>-327.24</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Z15" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -990,14 +1031,14 @@
       <c r="C16" s="1">
         <v>-261.77999999999997</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD16" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1007,11 +1048,11 @@
       <c r="C17" s="1">
         <v>-14.05</v>
       </c>
-      <c r="AC17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1021,11 +1062,11 @@
       <c r="C18" s="1">
         <v>-7.49</v>
       </c>
-      <c r="AC18" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE18" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1035,14 +1076,14 @@
       <c r="C19" s="1">
         <v>-125.7</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P19" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1052,11 +1093,11 @@
       <c r="C20" s="1">
         <v>-18.95</v>
       </c>
-      <c r="R20" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T20" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1066,11 +1107,11 @@
       <c r="C21" s="1">
         <v>-52.28</v>
       </c>
-      <c r="R21" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T21" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1080,11 +1121,11 @@
       <c r="C22" s="1">
         <v>-19.309999999999999</v>
       </c>
-      <c r="R22" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T22" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1094,11 +1135,11 @@
       <c r="C23" s="1">
         <v>-5.7</v>
       </c>
-      <c r="O23" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q23" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1108,11 +1149,11 @@
       <c r="C24" s="1">
         <v>-5.7</v>
       </c>
-      <c r="O24" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q24" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1122,11 +1163,11 @@
       <c r="C25" s="1">
         <v>-3.6</v>
       </c>
-      <c r="O25" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1136,11 +1177,11 @@
       <c r="C26" s="1">
         <v>-3.6</v>
       </c>
-      <c r="O26" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q26" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1150,14 +1191,14 @@
       <c r="C27" s="1">
         <v>-17.14</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R27" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T27" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1167,11 +1208,11 @@
       <c r="C28" s="1">
         <v>-23.98</v>
       </c>
-      <c r="Q28" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="S28" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -1181,14 +1222,14 @@
       <c r="C29" s="1">
         <v>-31</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P29" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="R29" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1198,14 +1239,17 @@
       <c r="C30" s="1">
         <v>-3.14</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="H30" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -1215,11 +1259,11 @@
       <c r="C31" s="1">
         <v>-29.07</v>
       </c>
-      <c r="R31" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T31" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -1229,14 +1273,14 @@
       <c r="C32" s="1">
         <v>1247.8499999999999</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J32" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1246,11 +1290,11 @@
       <c r="C33" s="1">
         <v>-66.430000000000007</v>
       </c>
-      <c r="W33" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y33" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -1260,11 +1304,11 @@
       <c r="C34" s="1">
         <v>-30.17</v>
       </c>
-      <c r="Q34" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="S34" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1274,14 +1318,17 @@
       <c r="C35" s="1">
         <v>-61.97</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="H35" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -1291,11 +1338,11 @@
       <c r="C36" s="1">
         <v>-4.28</v>
       </c>
-      <c r="R36" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T36" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -1305,11 +1352,11 @@
       <c r="C37" s="1">
         <v>83.19</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J37" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -1319,11 +1366,11 @@
       <c r="C38" s="1">
         <v>-20.98</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N38" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -1333,11 +1380,11 @@
       <c r="C39" s="1">
         <v>499.14</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J39" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -1347,11 +1394,11 @@
       <c r="C40" s="1">
         <v>-26.31</v>
       </c>
-      <c r="AB40" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD40" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -1361,11 +1408,11 @@
       <c r="C41" s="1">
         <v>-38.450000000000003</v>
       </c>
-      <c r="R41" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T41" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -1375,11 +1422,11 @@
       <c r="C42" s="1">
         <v>-6.09</v>
       </c>
-      <c r="R42" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T42" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -1389,14 +1436,14 @@
       <c r="C43" s="1">
         <v>-13.98</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="H43" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -1406,11 +1453,11 @@
       <c r="C44" s="1">
         <v>-45.03</v>
       </c>
-      <c r="L44" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N44" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -1420,14 +1467,14 @@
       <c r="C45" s="1">
         <v>-636.57000000000005</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L45" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N45" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -1437,14 +1484,14 @@
       <c r="C46" s="1">
         <v>-56.6</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S46" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U46" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -1454,14 +1501,14 @@
       <c r="C47" s="1">
         <v>651</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L47" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N47" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -1471,11 +1518,11 @@
       <c r="C48" s="1">
         <v>-7</v>
       </c>
-      <c r="L48" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N48" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -1485,14 +1532,14 @@
       <c r="C49" s="1">
         <v>-408.34</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Z49" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB49" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -1502,11 +1549,11 @@
       <c r="C50" s="1">
         <v>-767</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I50" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -1516,14 +1563,14 @@
       <c r="C51" s="1">
         <v>-19.809999999999999</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="S51" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U51" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -1533,11 +1580,11 @@
       <c r="C52" s="1">
         <v>-7.99</v>
       </c>
-      <c r="AB52" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD52" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -1547,14 +1594,14 @@
       <c r="C53" s="1">
         <v>-9</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="H53" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -1564,11 +1611,11 @@
       <c r="C54" s="1">
         <v>-20</v>
       </c>
-      <c r="S54" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U54" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -1578,11 +1625,11 @@
       <c r="C55" s="1">
         <v>-32.86</v>
       </c>
-      <c r="U55" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="W55" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -1592,11 +1639,11 @@
       <c r="C56" s="1">
         <v>-19.899999999999999</v>
       </c>
-      <c r="V56" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X56" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -1606,14 +1653,14 @@
       <c r="C57" s="1">
         <v>-1</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V57" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X57" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -1623,11 +1670,11 @@
       <c r="C58" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="L58" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N58" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -1637,11 +1684,11 @@
       <c r="C59" s="1">
         <v>-530</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K59" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -1651,11 +1698,11 @@
       <c r="C60" s="1">
         <v>-17.47</v>
       </c>
-      <c r="R60" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T60" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -1665,11 +1712,11 @@
       <c r="C61" s="1">
         <v>-7.26</v>
       </c>
-      <c r="R61" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T61" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -1679,11 +1726,11 @@
       <c r="C62" s="1">
         <v>-61.65</v>
       </c>
-      <c r="W62" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y62" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -1693,11 +1740,11 @@
       <c r="C63" s="1">
         <v>-30</v>
       </c>
-      <c r="AB63" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD63" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -1707,14 +1754,17 @@
       <c r="C64" s="1">
         <v>-49</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L64" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N64" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -1724,11 +1774,11 @@
       <c r="C65" s="1">
         <v>-12.98</v>
       </c>
-      <c r="L65" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N65" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -1738,11 +1788,11 @@
       <c r="C66" s="1">
         <v>-14.16</v>
       </c>
-      <c r="AB66" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD66" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -1752,11 +1802,11 @@
       <c r="C67" s="1">
         <v>1081.47</v>
       </c>
-      <c r="H67" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J67" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -1766,11 +1816,11 @@
       <c r="C68" s="1">
         <v>-45</v>
       </c>
-      <c r="M68" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="O68" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -1780,11 +1830,11 @@
       <c r="C69" s="1">
         <v>-135</v>
       </c>
-      <c r="X69" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z69" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -1794,11 +1844,11 @@
       <c r="C70" s="1">
         <v>-12.24</v>
       </c>
-      <c r="R70" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T70" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -1808,14 +1858,17 @@
       <c r="C71" s="1">
         <v>-210</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L71" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -1825,11 +1878,11 @@
       <c r="C72" s="1">
         <v>-10.96</v>
       </c>
-      <c r="R72" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T72" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -1839,14 +1892,14 @@
       <c r="C73" s="1">
         <v>-29.98</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q73" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="S73" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -1856,14 +1909,14 @@
       <c r="C74" s="1">
         <v>-13.5</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="H74" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -1873,14 +1926,14 @@
       <c r="C75" s="1">
         <v>-5.38</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R75" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T75" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -1890,14 +1943,17 @@
       <c r="C76" s="1">
         <v>-31</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P76" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R76" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -1907,11 +1963,11 @@
       <c r="C77" s="1">
         <v>-4.43</v>
       </c>
-      <c r="R77" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T77" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -1921,14 +1977,14 @@
       <c r="C78" s="1">
         <v>-19.13</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AB78" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD78" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -1938,11 +1994,11 @@
       <c r="C79" s="1">
         <v>-150</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="I79" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -1952,11 +2008,11 @@
       <c r="C80" s="1">
         <v>-43.64</v>
       </c>
-      <c r="Q80" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S80" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -1966,11 +2022,11 @@
       <c r="C81" s="1">
         <v>-30.61</v>
       </c>
-      <c r="Q81" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S81" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -1980,14 +2036,17 @@
       <c r="C82" s="1">
         <v>1331.04</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H82" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J82" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -1997,11 +2056,11 @@
       <c r="C83" s="1">
         <v>-6.5</v>
       </c>
-      <c r="K83" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M83" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -2011,14 +2070,17 @@
       <c r="C84" s="1">
         <v>-363.54</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F84" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="H84" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -2028,11 +2090,11 @@
       <c r="C85" s="1">
         <v>-6.92</v>
       </c>
-      <c r="R85" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T85" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -2042,11 +2104,11 @@
       <c r="C86" s="1">
         <v>-12.6</v>
       </c>
-      <c r="R86" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T86" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -2056,11 +2118,11 @@
       <c r="C87" s="1">
         <v>332.76</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J87" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -2070,14 +2132,14 @@
       <c r="C88" s="1">
         <v>-4</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="L88" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -2087,11 +2149,11 @@
       <c r="C89" s="1">
         <v>-395</v>
       </c>
-      <c r="G89" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="I89" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -2101,11 +2163,11 @@
       <c r="C90" s="1">
         <v>-20</v>
       </c>
-      <c r="T90" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V90" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -2115,11 +2177,11 @@
       <c r="C91" s="1">
         <v>-32.86</v>
       </c>
-      <c r="U91" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W91" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -2129,14 +2191,14 @@
       <c r="C92" s="1">
         <v>-1</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V92" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X92" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -2146,14 +2208,14 @@
       <c r="C93" s="1">
         <v>-19.899999999999999</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="V93" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X93" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -2163,11 +2225,11 @@
       <c r="C94" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="L94" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N94" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -2177,14 +2239,14 @@
       <c r="C95" s="1">
         <v>-19.809999999999999</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="S95" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U95" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -2194,11 +2256,11 @@
       <c r="C96" s="1">
         <v>-530</v>
       </c>
-      <c r="I96" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K96" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -2208,14 +2270,14 @@
       <c r="C97" s="1">
         <v>421.27</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AB97" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD97" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -2225,14 +2287,14 @@
       <c r="C98" s="1">
         <v>-276.62</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L98" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -2242,11 +2304,11 @@
       <c r="C99" s="1">
         <v>-97.75</v>
       </c>
-      <c r="Z99" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB99" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -2256,14 +2318,14 @@
       <c r="C100" s="1">
         <v>-11.99</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AB100" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD100" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -2273,14 +2335,14 @@
       <c r="C101" s="1">
         <v>-14.08</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AB101" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD101" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -2290,11 +2352,11 @@
       <c r="C102" s="1">
         <v>-73.95</v>
       </c>
-      <c r="X102" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z102" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -2304,11 +2366,11 @@
       <c r="C103" s="1">
         <v>-10.199999999999999</v>
       </c>
-      <c r="R103" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T103" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -2318,11 +2380,11 @@
       <c r="C104" s="1">
         <v>-3.87</v>
       </c>
-      <c r="R104" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T104" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -2332,11 +2394,11 @@
       <c r="C105" s="1">
         <v>-6.3</v>
       </c>
-      <c r="K105" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M105" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -2346,11 +2408,11 @@
       <c r="C106" s="1">
         <v>-5.7</v>
       </c>
-      <c r="O106" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q106" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -2360,11 +2422,11 @@
       <c r="C107" s="1">
         <v>-5.7</v>
       </c>
-      <c r="O107" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Q107" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -2374,11 +2436,11 @@
       <c r="C108" s="1">
         <v>-45</v>
       </c>
-      <c r="M108" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="O108" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -2388,11 +2450,11 @@
       <c r="C109" s="1">
         <v>-6.3</v>
       </c>
-      <c r="K109" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M109" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -2402,11 +2464,11 @@
       <c r="C110" s="1">
         <v>-2.99</v>
       </c>
-      <c r="R110" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T110" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -2416,11 +2478,11 @@
       <c r="C111" s="1">
         <v>-6.3</v>
       </c>
-      <c r="K111" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M111" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -2430,11 +2492,11 @@
       <c r="C112" s="1">
         <v>-29.98</v>
       </c>
-      <c r="Q112" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S112" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -2444,11 +2506,11 @@
       <c r="C113" s="1">
         <v>-2.99</v>
       </c>
-      <c r="R113" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T113" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -2458,11 +2520,11 @@
       <c r="C114" s="1">
         <v>-11.5</v>
       </c>
-      <c r="W114" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y114" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -2472,11 +2534,11 @@
       <c r="C115" s="1">
         <v>-75</v>
       </c>
-      <c r="X115" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z115" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -2486,14 +2548,14 @@
       <c r="C116" s="1">
         <v>-74.2</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="F116" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F116" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H116" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -2503,11 +2565,11 @@
       <c r="C117" s="1">
         <v>-2.99</v>
       </c>
-      <c r="R117" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T117" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -2517,14 +2579,14 @@
       <c r="C118" s="1">
         <v>-25</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="F118" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F118" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H118" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>118</v>
       </c>
@@ -2534,11 +2596,11 @@
       <c r="C119" s="1">
         <v>-2.99</v>
       </c>
-      <c r="R119" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T119" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -2548,11 +2610,11 @@
       <c r="C120" s="1">
         <v>-9.27</v>
       </c>
-      <c r="R120" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T120" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -2562,11 +2624,11 @@
       <c r="C121" s="1">
         <v>-36.1</v>
       </c>
-      <c r="R121" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T121" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -2576,11 +2638,11 @@
       <c r="C122" s="1">
         <v>98.98</v>
       </c>
-      <c r="L122" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N122" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -2590,14 +2652,14 @@
       <c r="C123" s="1">
         <v>-14.99</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="F123" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J123" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L123" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -2607,11 +2669,11 @@
       <c r="C124" s="1">
         <v>-34.229999999999997</v>
       </c>
-      <c r="L124" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N124" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -2621,11 +2683,11 @@
       <c r="C125" s="1">
         <v>-2.99</v>
       </c>
-      <c r="R125" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T125" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>125</v>
       </c>
@@ -2635,11 +2697,11 @@
       <c r="C126" s="1">
         <v>-15.97</v>
       </c>
-      <c r="W126" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y126" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -2649,11 +2711,11 @@
       <c r="C127" s="1">
         <v>1247.8499999999999</v>
       </c>
-      <c r="H127" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="J127" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -2663,11 +2725,11 @@
       <c r="C128" s="1">
         <v>-31</v>
       </c>
-      <c r="P128" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R128" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -2677,11 +2739,11 @@
       <c r="C129" s="1">
         <v>-2.99</v>
       </c>
-      <c r="R129" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T129" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -2691,11 +2753,11 @@
       <c r="C130" s="1">
         <v>-2.89</v>
       </c>
-      <c r="R130" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T130" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -2705,11 +2767,11 @@
       <c r="C131" s="1">
         <v>-6.27</v>
       </c>
-      <c r="R131" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T131" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -2719,14 +2781,17 @@
       <c r="C132" s="1">
         <v>-150</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J132" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L132" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -2736,11 +2801,11 @@
       <c r="C133" s="1">
         <v>-395</v>
       </c>
-      <c r="G133" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I133" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -2750,11 +2815,11 @@
       <c r="C134" s="1">
         <v>-29.95</v>
       </c>
-      <c r="Q134" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S134" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -2764,11 +2829,11 @@
       <c r="C135" s="1">
         <v>-19.16</v>
       </c>
-      <c r="W135" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y135" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" s="13">
         <v>135</v>
       </c>
@@ -2778,11 +2843,11 @@
       <c r="C136" s="1">
         <v>-65.5</v>
       </c>
-      <c r="L136" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N136" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -2792,11 +2857,11 @@
       <c r="C137" s="1">
         <v>-6.3</v>
       </c>
-      <c r="K137" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M137" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" s="13">
         <v>137</v>
       </c>
@@ -2806,11 +2871,11 @@
       <c r="C138" s="1">
         <v>-9.25</v>
       </c>
-      <c r="R138" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T138" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -2820,14 +2885,14 @@
       <c r="C139" s="1">
         <v>1081.47</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="F139" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H139" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J139" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" s="13">
         <v>139</v>
       </c>
@@ -2837,11 +2902,11 @@
       <c r="C140" s="1">
         <v>-790</v>
       </c>
-      <c r="G140" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I140" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -2851,11 +2916,11 @@
       <c r="C141" s="1">
         <v>-22.5</v>
       </c>
-      <c r="W141" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y141" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>141</v>
       </c>
@@ -2865,11 +2930,11 @@
       <c r="C142" s="1">
         <v>-3.58</v>
       </c>
-      <c r="R142" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T142" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>142</v>
       </c>
@@ -2879,14 +2944,14 @@
       <c r="C143" s="1">
         <v>1882</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="F143" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J143" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L143" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>143</v>
       </c>
@@ -2896,14 +2961,14 @@
       <c r="C144" s="1">
         <v>-1820</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="F144" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J144" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L144" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>144</v>
       </c>
@@ -2913,12 +2978,12 @@
       <c r="C145" s="1">
         <v>-135</v>
       </c>
-      <c r="H145" s="8"/>
-      <c r="X145" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J145" s="8"/>
+      <c r="Z145" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>145</v>
       </c>
@@ -2928,11 +2993,11 @@
       <c r="C146" s="1">
         <v>-6.3</v>
       </c>
-      <c r="K146" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M146" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>146</v>
       </c>
@@ -2942,11 +3007,11 @@
       <c r="C147" s="1">
         <v>-25.13</v>
       </c>
-      <c r="W147" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y147" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>147</v>
       </c>
@@ -2956,11 +3021,11 @@
       <c r="C148" s="1">
         <v>-11.21</v>
       </c>
-      <c r="W148" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y148" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>148</v>
       </c>
@@ -2970,11 +3035,11 @@
       <c r="C149" s="1">
         <v>-6.5</v>
       </c>
-      <c r="K149" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M149" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>149</v>
       </c>
@@ -2984,11 +3049,11 @@
       <c r="C150" s="1">
         <v>-12.29</v>
       </c>
-      <c r="R150" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T150" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>150</v>
       </c>
@@ -2998,14 +3063,15 @@
       <c r="C151" s="1">
         <v>-19.809999999999999</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S151" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="G151" s="1"/>
+      <c r="U151" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>151</v>
       </c>
@@ -3015,14 +3081,14 @@
       <c r="C152" s="1">
         <v>-19.13</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="F152" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AB152" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD152" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>152</v>
       </c>
@@ -3032,11 +3098,11 @@
       <c r="C153" s="1">
         <v>-24.94</v>
       </c>
-      <c r="Z153" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB153" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>153</v>
       </c>
@@ -3046,11 +3112,11 @@
       <c r="C154" s="1">
         <v>-2.75</v>
       </c>
-      <c r="R154" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T154" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155" s="13">
         <v>154</v>
       </c>
@@ -3060,14 +3126,14 @@
       <c r="C155" s="1">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="F155" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J155" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="L155" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>155</v>
       </c>
@@ -3077,11 +3143,11 @@
       <c r="C156" s="1">
         <v>-140</v>
       </c>
-      <c r="AA156" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC156" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157" s="13">
         <v>156</v>
       </c>
@@ -3091,11 +3157,11 @@
       <c r="C157" s="1">
         <v>-20</v>
       </c>
-      <c r="T157" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="V157" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158" s="13">
         <v>157</v>
       </c>
@@ -3105,11 +3171,11 @@
       <c r="C158" s="1">
         <v>-32.86</v>
       </c>
-      <c r="U158" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="W158" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A159" s="13">
         <v>158</v>
       </c>
@@ -3119,14 +3185,14 @@
       <c r="C159" s="1">
         <v>-1</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="F159" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V159" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X159" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160" s="13">
         <v>159</v>
       </c>
@@ -3136,14 +3202,14 @@
       <c r="C160" s="1">
         <v>-19.899999999999999</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="F160" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="V160" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X160" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" s="13">
         <v>160</v>
       </c>
@@ -3153,11 +3219,11 @@
       <c r="C161" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="L161" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N161" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162" s="13">
         <v>161</v>
       </c>
@@ -3167,11 +3233,11 @@
       <c r="C162" s="1">
         <v>-21.26</v>
       </c>
-      <c r="W162" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y162" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" s="13">
         <v>162</v>
       </c>
@@ -3181,11 +3247,11 @@
       <c r="C163" s="1">
         <v>-2.75</v>
       </c>
-      <c r="R163" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T163" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>163</v>
       </c>
@@ -3195,11 +3261,11 @@
       <c r="C164" s="1">
         <v>-530</v>
       </c>
-      <c r="I164" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="K164" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" s="13">
         <v>164</v>
       </c>
@@ -3209,11 +3275,11 @@
       <c r="C165" s="1">
         <v>-2.73</v>
       </c>
-      <c r="R165" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T165" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" s="13">
         <v>165</v>
       </c>
@@ -3223,11 +3289,11 @@
       <c r="C166" s="1">
         <v>665.52</v>
       </c>
-      <c r="H166" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="J166" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" s="13">
         <v>166</v>
       </c>
@@ -3240,11 +3306,11 @@
       <c r="D167" s="1">
         <v>442.52</v>
       </c>
-      <c r="R167" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T167" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" s="13">
         <v>167</v>
       </c>
@@ -3257,11 +3323,11 @@
       <c r="D168" s="1">
         <v>436.22</v>
       </c>
-      <c r="K168" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M168" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" s="13">
         <v>168</v>
       </c>
@@ -3271,14 +3337,14 @@
       <c r="C169" s="1">
         <v>-38.28</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="F169" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AB169" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD169" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>169</v>
       </c>
@@ -3288,14 +3354,14 @@
       <c r="C170" s="1">
         <v>-11.99</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="F170" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AB170" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AD170" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" s="13">
         <v>170</v>
       </c>
@@ -3305,11 +3371,11 @@
       <c r="C171" s="1">
         <v>-0.54</v>
       </c>
-      <c r="R171" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T171" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>171</v>
       </c>
@@ -3322,11 +3388,11 @@
       <c r="D172" s="1">
         <v>382.39</v>
       </c>
-      <c r="R172" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T172" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" s="13">
         <v>172</v>
       </c>
@@ -3336,11 +3402,11 @@
       <c r="C173" s="1">
         <v>-27.76</v>
       </c>
-      <c r="W173" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y173" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" s="13">
         <v>173</v>
       </c>
@@ -3350,14 +3416,14 @@
       <c r="C174" s="1">
         <v>-10.48</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="F174" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="R174" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T174" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" s="13">
         <v>174</v>
       </c>
@@ -3367,14 +3433,14 @@
       <c r="C175" s="1">
         <v>-2.59</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="F175" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="R175" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T175" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" s="13">
         <v>175</v>
       </c>
@@ -3384,11 +3450,11 @@
       <c r="C176" s="1">
         <v>-19.95</v>
       </c>
-      <c r="W176" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y176" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" s="13">
         <v>176</v>
       </c>
@@ -3398,11 +3464,11 @@
       <c r="C177" s="1">
         <v>-2.99</v>
       </c>
-      <c r="R177" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T177" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" s="13">
         <v>177</v>
       </c>
@@ -3412,11 +3478,11 @@
       <c r="C178" s="1">
         <v>-1.79</v>
       </c>
-      <c r="R178" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T178" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -3426,14 +3492,14 @@
       <c r="C179" s="1">
         <v>-56.9</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="F179" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L179" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N179" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -3446,15 +3512,15 @@
       <c r="D180" s="1">
         <v>245.43</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="F180" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L180" s="8"/>
-      <c r="AB180" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="N180" s="8"/>
+      <c r="AD180" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -3464,11 +3530,11 @@
       <c r="C181" s="1">
         <v>-8.31</v>
       </c>
-      <c r="R181" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T181" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -3481,11 +3547,11 @@
       <c r="D182" s="1">
         <v>211.31</v>
       </c>
-      <c r="W182" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Y182" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183" s="13">
         <v>182</v>
       </c>
@@ -3495,11 +3561,11 @@
       <c r="C183" s="1">
         <v>-4.9800000000000004</v>
       </c>
-      <c r="R183" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T183" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184" s="13">
         <v>183</v>
       </c>
@@ -3512,11 +3578,11 @@
       <c r="D184" s="1">
         <v>161.33000000000001</v>
       </c>
-      <c r="M184" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="O184" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A185" s="13">
         <v>184</v>
       </c>
@@ -3529,11 +3595,11 @@
       <c r="D185" s="1">
         <v>158.16</v>
       </c>
-      <c r="R185" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T185" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A186" s="13">
         <v>185</v>
       </c>
@@ -3543,11 +3609,11 @@
       <c r="C186" s="1">
         <v>-2.99</v>
       </c>
-      <c r="R186" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T186" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A187" s="13">
         <v>186</v>
       </c>
@@ -3560,12 +3626,12 @@
       <c r="D187" s="1">
         <v>279.58</v>
       </c>
-      <c r="R187" s="8"/>
-      <c r="AB187" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T187" s="8"/>
+      <c r="AD187" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188" s="13">
         <v>187</v>
       </c>
@@ -3575,11 +3641,11 @@
       <c r="C188" s="1">
         <v>-5.4</v>
       </c>
-      <c r="R188" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T188" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189" s="13">
         <v>188</v>
       </c>
@@ -3589,11 +3655,11 @@
       <c r="C189" s="1">
         <v>-93.04</v>
       </c>
-      <c r="R189" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T189" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" s="13">
         <v>189</v>
       </c>
@@ -3606,11 +3672,11 @@
       <c r="D190" s="1">
         <v>179.65</v>
       </c>
-      <c r="R190" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="T190" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A191" s="13">
         <v>190</v>
       </c>
@@ -3620,11 +3686,11 @@
       <c r="C191" s="1">
         <v>-7.49</v>
       </c>
-      <c r="K191" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M191" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A192" s="13">
         <v>191</v>
       </c>
@@ -3634,11 +3700,11 @@
       <c r="C192" s="1">
         <v>-22.76</v>
       </c>
-      <c r="W192" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Y192" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A193" s="13">
         <v>192</v>
       </c>
@@ -3648,11 +3714,11 @@
       <c r="C193" s="1">
         <v>-7.97</v>
       </c>
-      <c r="K193" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="M193" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A194" s="13">
         <v>193</v>
       </c>
@@ -3662,11 +3728,11 @@
       <c r="C194" s="1">
         <v>-5.19</v>
       </c>
-      <c r="R194" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="T194" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195" s="13">
         <v>194</v>
       </c>
@@ -3676,11 +3742,11 @@
       <c r="C195" s="1">
         <v>582.33000000000004</v>
       </c>
-      <c r="H195" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="J195" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A196" s="13">
         <v>195</v>
       </c>
@@ -3690,11 +3756,11 @@
       <c r="C196" s="1">
         <v>-3.87</v>
       </c>
-      <c r="R196" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="T196" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197" s="13">
         <v>196</v>
       </c>
@@ -3704,11 +3770,11 @@
       <c r="C197" s="1">
         <v>-1.39</v>
       </c>
-      <c r="R197" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="T197" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A198" s="13">
         <v>197</v>
       </c>
@@ -3718,11 +3784,11 @@
       <c r="C198" s="1">
         <v>-6.6</v>
       </c>
-      <c r="K198" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="M198" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A199" s="13">
         <v>198</v>
       </c>
@@ -3732,11 +3798,11 @@
       <c r="C199" s="1">
         <v>-8.93</v>
       </c>
-      <c r="R199" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="T199" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A200" s="13">
         <v>199</v>
       </c>
@@ -3746,14 +3812,17 @@
       <c r="C200" s="1">
         <v>-74.2</v>
       </c>
-      <c r="E200" s="7" t="s">
+      <c r="E200" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F200" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L200" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="N200" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201" s="13">
         <v>200</v>
       </c>
@@ -3763,14 +3832,14 @@
       <c r="C201" s="1">
         <v>-9.99</v>
       </c>
-      <c r="E201" s="7" t="s">
+      <c r="F201" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AB201" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD201" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A202" s="13">
         <v>201</v>
       </c>
@@ -3780,14 +3849,17 @@
       <c r="C202" s="1">
         <v>-194.67</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="E202" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F202" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AB202" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AD202" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A203" s="13">
         <v>202</v>
       </c>
@@ -3797,14 +3869,14 @@
       <c r="C203" s="1">
         <v>-161.69999999999999</v>
       </c>
-      <c r="E203" s="7" t="s">
+      <c r="F203" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AF203" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AH203" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A204" s="13">
         <v>203</v>
       </c>
@@ -3817,10 +3889,10 @@
       <c r="D204" s="1">
         <v>251.89</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="F204" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AB204" s="8" t="s">
+      <c r="AD204" s="8" t="s">
         <v>67</v>
       </c>
     </row>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="104">
   <si>
     <t>Betrag</t>
   </si>
@@ -318,6 +318,24 @@
   </si>
   <si>
     <t>EWE</t>
+  </si>
+  <si>
+    <t>IKEA</t>
+  </si>
+  <si>
+    <t>ELTERN</t>
+  </si>
+  <si>
+    <t>VGH</t>
+  </si>
+  <si>
+    <t>PAYPAL</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>PARSHIP</t>
   </si>
 </sst>
 </file>
@@ -676,8 +694,8 @@
   <dimension ref="A1:AH204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,6 +840,9 @@
       <c r="C3" s="1">
         <v>-24</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
@@ -915,6 +936,9 @@
       <c r="C9" s="1">
         <v>-35.409999999999997</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
@@ -949,6 +973,9 @@
       <c r="C11" s="1">
         <v>-569.34</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
@@ -1467,6 +1494,9 @@
       <c r="C45" s="1">
         <v>-636.57000000000005</v>
       </c>
+      <c r="E45" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F45" s="7" t="s">
         <v>57</v>
       </c>
@@ -1501,6 +1531,9 @@
       <c r="C47" s="1">
         <v>651</v>
       </c>
+      <c r="E47" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F47" s="7" t="s">
         <v>46</v>
       </c>
@@ -2548,6 +2581,9 @@
       <c r="C116" s="1">
         <v>-74.2</v>
       </c>
+      <c r="E116" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F116" s="7" t="s">
         <v>65</v>
       </c>
@@ -2579,6 +2615,9 @@
       <c r="C118" s="1">
         <v>-25</v>
       </c>
+      <c r="E118" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F118" s="7" t="s">
         <v>65</v>
       </c>
@@ -3081,6 +3120,9 @@
       <c r="C152" s="1">
         <v>-19.13</v>
       </c>
+      <c r="E152" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F152" s="7" t="s">
         <v>37</v>
       </c>
@@ -3416,6 +3458,9 @@
       <c r="C174" s="1">
         <v>-10.48</v>
       </c>
+      <c r="E174" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="F174" s="7" t="s">
         <v>70</v>
       </c>
@@ -3433,6 +3478,9 @@
       <c r="C175" s="1">
         <v>-2.59</v>
       </c>
+      <c r="E175" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="F175" s="7" t="s">
         <v>70</v>
       </c>
@@ -3512,6 +3560,7 @@
       <c r="D180" s="1">
         <v>245.43</v>
       </c>
+      <c r="E180" s="7"/>
       <c r="F180" s="7" t="s">
         <v>72</v>
       </c>
@@ -3868,6 +3917,9 @@
       </c>
       <c r="C203" s="1">
         <v>-161.69999999999999</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="F203" s="7" t="s">
         <v>85</v>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
   <si>
     <t>Betrag</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>PARSHIP</t>
+  </si>
+  <si>
+    <t>SHELL</t>
   </si>
 </sst>
 </file>
@@ -691,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH204"/>
+  <dimension ref="A1:AH208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3948,6 +3951,71 @@
         <v>67</v>
       </c>
     </row>
+    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A205" s="13">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5">
+        <v>43937</v>
+      </c>
+      <c r="C205" s="1">
+        <v>-31</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R205" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A206" s="13">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5">
+        <v>43937</v>
+      </c>
+      <c r="C206" s="1">
+        <v>-6.6</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M206" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A207" s="13">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5">
+        <v>43937</v>
+      </c>
+      <c r="C207" s="1">
+        <v>-3.08</v>
+      </c>
+      <c r="T207" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A208" s="13">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5">
+        <v>43937</v>
+      </c>
+      <c r="C208" s="1">
+        <v>-15.67</v>
+      </c>
+      <c r="Y208" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="105">
   <si>
     <t>Betrag</t>
   </si>
@@ -694,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH208"/>
+  <dimension ref="A1:AG208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,10 +712,10 @@
     <col min="7" max="7" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="34" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="33" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -765,61 +765,58 @@
         <v>16</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH1" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -829,11 +826,11 @@
       <c r="C2" s="1">
         <v>-7.99</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AC2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -849,11 +846,11 @@
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AC3" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -866,11 +863,11 @@
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="W4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -880,11 +877,11 @@
       <c r="C5" s="1">
         <v>-20</v>
       </c>
-      <c r="V5" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="U5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -894,11 +891,11 @@
       <c r="C6" s="1">
         <v>-32.86</v>
       </c>
-      <c r="W6" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="V6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -911,11 +908,11 @@
       <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="W7" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -929,7 +926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -949,7 +946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -966,7 +963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -982,11 +979,11 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AG11" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AF11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1017,7 +1014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1030,11 +1027,11 @@
       <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AD14" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AC14" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1047,11 +1044,11 @@
       <c r="F15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AB15" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AA15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1064,11 +1061,11 @@
       <c r="F16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AD16" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC16" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1078,11 +1075,11 @@
       <c r="C17" s="1">
         <v>-14.05</v>
       </c>
-      <c r="AE17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1092,11 +1089,11 @@
       <c r="C18" s="1">
         <v>-7.49</v>
       </c>
-      <c r="AE18" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AD18" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1113,7 +1110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1123,11 +1120,11 @@
       <c r="C20" s="1">
         <v>-18.95</v>
       </c>
-      <c r="T20" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S20" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1137,11 +1134,11 @@
       <c r="C21" s="1">
         <v>-52.28</v>
       </c>
-      <c r="T21" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S21" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1151,11 +1148,11 @@
       <c r="C22" s="1">
         <v>-19.309999999999999</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S22" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1165,11 +1162,14 @@
       <c r="C23" s="1">
         <v>-5.7</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1179,11 +1179,14 @@
       <c r="C24" s="1">
         <v>-5.7</v>
       </c>
-      <c r="Q24" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="F24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1193,11 +1196,14 @@
       <c r="C25" s="1">
         <v>-3.6</v>
       </c>
-      <c r="Q25" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1207,11 +1213,14 @@
       <c r="C26" s="1">
         <v>-3.6</v>
       </c>
-      <c r="Q26" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1224,11 +1233,11 @@
       <c r="F27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="T27" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S27" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1238,11 +1247,11 @@
       <c r="C28" s="1">
         <v>-23.98</v>
       </c>
-      <c r="S28" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="R28" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -1255,11 +1264,11 @@
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R29" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q29" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1279,7 +1288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -1289,11 +1298,11 @@
       <c r="C31" s="1">
         <v>-29.07</v>
       </c>
-      <c r="T31" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="S31" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1320,11 +1329,11 @@
       <c r="C33" s="1">
         <v>-66.430000000000007</v>
       </c>
-      <c r="Y33" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X33" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -1334,11 +1343,11 @@
       <c r="C34" s="1">
         <v>-30.17</v>
       </c>
-      <c r="S34" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R34" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -1368,11 +1377,11 @@
       <c r="C36" s="1">
         <v>-4.28</v>
       </c>
-      <c r="T36" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S36" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -1424,11 +1433,11 @@
       <c r="C40" s="1">
         <v>-26.31</v>
       </c>
-      <c r="AD40" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC40" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -1438,11 +1447,11 @@
       <c r="C41" s="1">
         <v>-38.450000000000003</v>
       </c>
-      <c r="T41" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S41" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -1452,11 +1461,11 @@
       <c r="C42" s="1">
         <v>-6.09</v>
       </c>
-      <c r="T42" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S42" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -1473,7 +1482,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -1507,7 +1516,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -1520,11 +1529,11 @@
       <c r="F46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="U46" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="T46" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -1558,7 +1567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -1571,11 +1580,11 @@
       <c r="F49" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AB49" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA49" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -1589,7 +1598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -1602,11 +1611,11 @@
       <c r="F51" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="U51" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="T51" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -1616,11 +1625,11 @@
       <c r="C52" s="1">
         <v>-7.99</v>
       </c>
-      <c r="AD52" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC52" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -1647,11 +1656,11 @@
       <c r="C54" s="1">
         <v>-20</v>
       </c>
-      <c r="U54" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="T54" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -1661,11 +1670,11 @@
       <c r="C55" s="1">
         <v>-32.86</v>
       </c>
-      <c r="W55" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V55" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -1675,11 +1684,11 @@
       <c r="C56" s="1">
         <v>-19.899999999999999</v>
       </c>
-      <c r="X56" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W56" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -1692,11 +1701,11 @@
       <c r="F57" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X57" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W57" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -1724,7 +1733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -1734,11 +1743,11 @@
       <c r="C60" s="1">
         <v>-17.47</v>
       </c>
-      <c r="T60" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S60" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -1748,11 +1757,11 @@
       <c r="C61" s="1">
         <v>-7.26</v>
       </c>
-      <c r="T61" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S61" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -1762,11 +1771,11 @@
       <c r="C62" s="1">
         <v>-61.65</v>
       </c>
-      <c r="Y62" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X62" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -1776,11 +1785,11 @@
       <c r="C63" s="1">
         <v>-30</v>
       </c>
-      <c r="AD63" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC63" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -1814,7 +1823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -1824,11 +1833,11 @@
       <c r="C66" s="1">
         <v>-14.16</v>
       </c>
-      <c r="AD66" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC66" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -1866,11 +1875,11 @@
       <c r="C69" s="1">
         <v>-135</v>
       </c>
-      <c r="Z69" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y69" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -1880,11 +1889,11 @@
       <c r="C70" s="1">
         <v>-12.24</v>
       </c>
-      <c r="T70" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S70" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -1904,7 +1913,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -1914,11 +1923,11 @@
       <c r="C72" s="1">
         <v>-10.96</v>
       </c>
-      <c r="T72" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S72" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -1931,11 +1940,11 @@
       <c r="F73" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S73" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R73" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -1952,7 +1961,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -1965,11 +1974,11 @@
       <c r="F75" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="T75" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S75" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -1985,11 +1994,11 @@
       <c r="F76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="R76" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Q76" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -1999,11 +2008,11 @@
       <c r="C77" s="1">
         <v>-4.43</v>
       </c>
-      <c r="T77" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S77" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -2016,11 +2025,11 @@
       <c r="F78" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AD78" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC78" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -2034,7 +2043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -2044,11 +2053,11 @@
       <c r="C80" s="1">
         <v>-43.64</v>
       </c>
-      <c r="S80" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R80" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -2058,11 +2067,11 @@
       <c r="C81" s="1">
         <v>-30.61</v>
       </c>
-      <c r="S81" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R81" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -2096,7 +2105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -2126,11 +2135,11 @@
       <c r="C85" s="1">
         <v>-6.92</v>
       </c>
-      <c r="T85" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S85" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -2140,11 +2149,11 @@
       <c r="C86" s="1">
         <v>-12.6</v>
       </c>
-      <c r="T86" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S86" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -2158,7 +2167,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -2175,7 +2184,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -2199,11 +2208,11 @@
       <c r="C90" s="1">
         <v>-20</v>
       </c>
-      <c r="V90" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U90" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -2213,11 +2222,11 @@
       <c r="C91" s="1">
         <v>-32.86</v>
       </c>
-      <c r="W91" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V91" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -2230,11 +2239,11 @@
       <c r="F92" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="X92" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W92" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -2247,11 +2256,11 @@
       <c r="F93" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="X93" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W93" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -2278,11 +2287,11 @@
       <c r="F95" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="U95" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T95" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -2309,11 +2318,11 @@
       <c r="F97" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AD97" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC97" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -2340,11 +2349,11 @@
       <c r="C99" s="1">
         <v>-97.75</v>
       </c>
-      <c r="AB99" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA99" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -2357,11 +2366,11 @@
       <c r="F100" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AD100" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC100" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -2374,11 +2383,11 @@
       <c r="F101" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AD101" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC101" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -2388,11 +2397,11 @@
       <c r="C102" s="1">
         <v>-73.95</v>
       </c>
-      <c r="Z102" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y102" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -2402,11 +2411,11 @@
       <c r="C103" s="1">
         <v>-10.199999999999999</v>
       </c>
-      <c r="T103" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S103" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -2416,11 +2425,11 @@
       <c r="C104" s="1">
         <v>-3.87</v>
       </c>
-      <c r="T104" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S104" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -2444,11 +2453,14 @@
       <c r="C106" s="1">
         <v>-5.7</v>
       </c>
-      <c r="Q106" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="F106" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -2458,11 +2470,14 @@
       <c r="C107" s="1">
         <v>-5.7</v>
       </c>
-      <c r="Q107" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="F107" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -2476,7 +2491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -2500,11 +2515,11 @@
       <c r="C110" s="1">
         <v>-2.99</v>
       </c>
-      <c r="T110" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S110" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -2528,11 +2543,11 @@
       <c r="C112" s="1">
         <v>-29.98</v>
       </c>
-      <c r="S112" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="R112" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -2542,11 +2557,11 @@
       <c r="C113" s="1">
         <v>-2.99</v>
       </c>
-      <c r="T113" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S113" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -2556,11 +2571,11 @@
       <c r="C114" s="1">
         <v>-11.5</v>
       </c>
-      <c r="Y114" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X114" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -2570,11 +2585,11 @@
       <c r="C115" s="1">
         <v>-75</v>
       </c>
-      <c r="Z115" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y115" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -2594,7 +2609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -2604,11 +2619,11 @@
       <c r="C117" s="1">
         <v>-2.99</v>
       </c>
-      <c r="T117" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S117" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -2628,7 +2643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>118</v>
       </c>
@@ -2638,11 +2653,11 @@
       <c r="C119" s="1">
         <v>-2.99</v>
       </c>
-      <c r="T119" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S119" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -2652,11 +2667,11 @@
       <c r="C120" s="1">
         <v>-9.27</v>
       </c>
-      <c r="T120" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S120" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -2666,11 +2681,11 @@
       <c r="C121" s="1">
         <v>-36.1</v>
       </c>
-      <c r="T121" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S121" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -2684,7 +2699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -2701,7 +2716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -2715,7 +2730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -2725,11 +2740,11 @@
       <c r="C125" s="1">
         <v>-2.99</v>
       </c>
-      <c r="T125" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S125" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>125</v>
       </c>
@@ -2739,11 +2754,11 @@
       <c r="C126" s="1">
         <v>-15.97</v>
       </c>
-      <c r="Y126" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X126" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -2757,7 +2772,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -2767,11 +2782,11 @@
       <c r="C128" s="1">
         <v>-31</v>
       </c>
-      <c r="R128" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q128" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -2781,11 +2796,11 @@
       <c r="C129" s="1">
         <v>-2.99</v>
       </c>
-      <c r="T129" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S129" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -2795,11 +2810,11 @@
       <c r="C130" s="1">
         <v>-2.89</v>
       </c>
-      <c r="T130" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S130" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -2809,11 +2824,11 @@
       <c r="C131" s="1">
         <v>-6.27</v>
       </c>
-      <c r="T131" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S131" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -2833,7 +2848,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -2847,7 +2862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -2857,11 +2872,11 @@
       <c r="C134" s="1">
         <v>-29.95</v>
       </c>
-      <c r="S134" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="R134" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -2871,11 +2886,11 @@
       <c r="C135" s="1">
         <v>-19.16</v>
       </c>
-      <c r="Y135" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X135" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A136" s="13">
         <v>135</v>
       </c>
@@ -2889,7 +2904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138" s="13">
         <v>137</v>
       </c>
@@ -2913,11 +2928,11 @@
       <c r="C138" s="1">
         <v>-9.25</v>
       </c>
-      <c r="T138" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S138" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -2934,7 +2949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140" s="13">
         <v>139</v>
       </c>
@@ -2948,7 +2963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -2958,11 +2973,11 @@
       <c r="C141" s="1">
         <v>-22.5</v>
       </c>
-      <c r="Y141" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X141" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>141</v>
       </c>
@@ -2972,11 +2987,11 @@
       <c r="C142" s="1">
         <v>-3.58</v>
       </c>
-      <c r="T142" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S142" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>142</v>
       </c>
@@ -2993,7 +3008,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>143</v>
       </c>
@@ -3010,7 +3025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>144</v>
       </c>
@@ -3021,11 +3036,11 @@
         <v>-135</v>
       </c>
       <c r="J145" s="8"/>
-      <c r="Z145" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y145" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>145</v>
       </c>
@@ -3039,7 +3054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>146</v>
       </c>
@@ -3049,11 +3064,11 @@
       <c r="C147" s="1">
         <v>-25.13</v>
       </c>
-      <c r="Y147" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X147" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>147</v>
       </c>
@@ -3063,11 +3078,11 @@
       <c r="C148" s="1">
         <v>-11.21</v>
       </c>
-      <c r="Y148" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X148" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>148</v>
       </c>
@@ -3081,7 +3096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>149</v>
       </c>
@@ -3091,11 +3106,11 @@
       <c r="C150" s="1">
         <v>-12.29</v>
       </c>
-      <c r="T150" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S150" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>150</v>
       </c>
@@ -3109,11 +3124,11 @@
         <v>75</v>
       </c>
       <c r="G151" s="1"/>
-      <c r="U151" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="T151" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>151</v>
       </c>
@@ -3129,11 +3144,11 @@
       <c r="F152" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AD152" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC152" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>152</v>
       </c>
@@ -3143,11 +3158,11 @@
       <c r="C153" s="1">
         <v>-24.94</v>
       </c>
-      <c r="AB153" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA153" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>153</v>
       </c>
@@ -3157,11 +3172,11 @@
       <c r="C154" s="1">
         <v>-2.75</v>
       </c>
-      <c r="T154" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S154" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="13">
         <v>154</v>
       </c>
@@ -3178,7 +3193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>155</v>
       </c>
@@ -3188,11 +3203,11 @@
       <c r="C156" s="1">
         <v>-140</v>
       </c>
-      <c r="AC156" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB156" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="13">
         <v>156</v>
       </c>
@@ -3202,11 +3217,11 @@
       <c r="C157" s="1">
         <v>-20</v>
       </c>
-      <c r="V157" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="U157" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" s="13">
         <v>157</v>
       </c>
@@ -3216,11 +3231,11 @@
       <c r="C158" s="1">
         <v>-32.86</v>
       </c>
-      <c r="W158" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V158" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="13">
         <v>158</v>
       </c>
@@ -3233,11 +3248,11 @@
       <c r="F159" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X159" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W159" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="13">
         <v>159</v>
       </c>
@@ -3250,11 +3265,11 @@
       <c r="F160" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="X160" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W160" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="13">
         <v>160</v>
       </c>
@@ -3268,7 +3283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="13">
         <v>161</v>
       </c>
@@ -3278,11 +3293,11 @@
       <c r="C162" s="1">
         <v>-21.26</v>
       </c>
-      <c r="Y162" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X162" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="13">
         <v>162</v>
       </c>
@@ -3292,11 +3307,11 @@
       <c r="C163" s="1">
         <v>-2.75</v>
       </c>
-      <c r="T163" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S163" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>163</v>
       </c>
@@ -3310,7 +3325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165" s="13">
         <v>164</v>
       </c>
@@ -3320,11 +3335,11 @@
       <c r="C165" s="1">
         <v>-2.73</v>
       </c>
-      <c r="T165" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S165" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" s="13">
         <v>165</v>
       </c>
@@ -3338,7 +3353,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167" s="13">
         <v>166</v>
       </c>
@@ -3351,11 +3366,11 @@
       <c r="D167" s="1">
         <v>442.52</v>
       </c>
-      <c r="T167" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S167" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168" s="13">
         <v>167</v>
       </c>
@@ -3372,7 +3387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="13">
         <v>168</v>
       </c>
@@ -3385,11 +3400,11 @@
       <c r="F169" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AD169" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC169" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>169</v>
       </c>
@@ -3402,11 +3417,11 @@
       <c r="F170" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AD170" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC170" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="13">
         <v>170</v>
       </c>
@@ -3416,11 +3431,11 @@
       <c r="C171" s="1">
         <v>-0.54</v>
       </c>
-      <c r="T171" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S171" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>171</v>
       </c>
@@ -3433,11 +3448,11 @@
       <c r="D172" s="1">
         <v>382.39</v>
       </c>
-      <c r="T172" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S172" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="13">
         <v>172</v>
       </c>
@@ -3447,11 +3462,11 @@
       <c r="C173" s="1">
         <v>-27.76</v>
       </c>
-      <c r="Y173" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X173" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174" s="13">
         <v>173</v>
       </c>
@@ -3467,11 +3482,11 @@
       <c r="F174" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="T174" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S174" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="13">
         <v>174</v>
       </c>
@@ -3487,11 +3502,11 @@
       <c r="F175" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="T175" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S175" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" s="13">
         <v>175</v>
       </c>
@@ -3501,11 +3516,11 @@
       <c r="C176" s="1">
         <v>-19.95</v>
       </c>
-      <c r="Y176" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X176" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="13">
         <v>176</v>
       </c>
@@ -3515,11 +3530,11 @@
       <c r="C177" s="1">
         <v>-2.99</v>
       </c>
-      <c r="T177" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S177" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="13">
         <v>177</v>
       </c>
@@ -3529,11 +3544,11 @@
       <c r="C178" s="1">
         <v>-1.79</v>
       </c>
-      <c r="T178" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S178" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -3550,7 +3565,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -3568,11 +3583,11 @@
         <v>72</v>
       </c>
       <c r="N180" s="8"/>
-      <c r="AD180" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AC180" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -3582,11 +3597,11 @@
       <c r="C181" s="1">
         <v>-8.31</v>
       </c>
-      <c r="T181" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S181" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -3599,11 +3614,11 @@
       <c r="D182" s="1">
         <v>211.31</v>
       </c>
-      <c r="Y182" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X182" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="13">
         <v>182</v>
       </c>
@@ -3613,11 +3628,11 @@
       <c r="C183" s="1">
         <v>-4.9800000000000004</v>
       </c>
-      <c r="T183" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S183" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="13">
         <v>183</v>
       </c>
@@ -3634,7 +3649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="13">
         <v>184</v>
       </c>
@@ -3647,11 +3662,11 @@
       <c r="D185" s="1">
         <v>158.16</v>
       </c>
-      <c r="T185" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S185" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186" s="13">
         <v>185</v>
       </c>
@@ -3661,11 +3676,11 @@
       <c r="C186" s="1">
         <v>-2.99</v>
       </c>
-      <c r="T186" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S186" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="13">
         <v>186</v>
       </c>
@@ -3678,12 +3693,12 @@
       <c r="D187" s="1">
         <v>279.58</v>
       </c>
-      <c r="T187" s="8"/>
-      <c r="AD187" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S187" s="8"/>
+      <c r="AC187" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188" s="13">
         <v>187</v>
       </c>
@@ -3693,11 +3708,11 @@
       <c r="C188" s="1">
         <v>-5.4</v>
       </c>
-      <c r="T188" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S188" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189" s="13">
         <v>188</v>
       </c>
@@ -3707,11 +3722,11 @@
       <c r="C189" s="1">
         <v>-93.04</v>
       </c>
-      <c r="T189" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S189" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A190" s="13">
         <v>189</v>
       </c>
@@ -3724,11 +3739,11 @@
       <c r="D190" s="1">
         <v>179.65</v>
       </c>
-      <c r="T190" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S190" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A191" s="13">
         <v>190</v>
       </c>
@@ -3742,7 +3757,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192" s="13">
         <v>191</v>
       </c>
@@ -3752,11 +3767,11 @@
       <c r="C192" s="1">
         <v>-22.76</v>
       </c>
-      <c r="Y192" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="X192" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193" s="13">
         <v>192</v>
       </c>
@@ -3770,7 +3785,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194" s="13">
         <v>193</v>
       </c>
@@ -3780,11 +3795,11 @@
       <c r="C194" s="1">
         <v>-5.19</v>
       </c>
-      <c r="T194" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="S194" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195" s="13">
         <v>194</v>
       </c>
@@ -3798,7 +3813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A196" s="13">
         <v>195</v>
       </c>
@@ -3808,11 +3823,11 @@
       <c r="C196" s="1">
         <v>-3.87</v>
       </c>
-      <c r="T196" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="S196" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197" s="13">
         <v>196</v>
       </c>
@@ -3822,11 +3837,11 @@
       <c r="C197" s="1">
         <v>-1.39</v>
       </c>
-      <c r="T197" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="S197" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A198" s="13">
         <v>197</v>
       </c>
@@ -3840,7 +3855,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A199" s="13">
         <v>198</v>
       </c>
@@ -3850,11 +3865,11 @@
       <c r="C199" s="1">
         <v>-8.93</v>
       </c>
-      <c r="T199" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="S199" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A200" s="13">
         <v>199</v>
       </c>
@@ -3874,7 +3889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A201" s="13">
         <v>200</v>
       </c>
@@ -3887,11 +3902,11 @@
       <c r="F201" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AD201" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AC201" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A202" s="13">
         <v>201</v>
       </c>
@@ -3907,11 +3922,11 @@
       <c r="F202" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AD202" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AC202" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A203" s="13">
         <v>202</v>
       </c>
@@ -3927,11 +3942,11 @@
       <c r="F203" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AH203" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AG203" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204" s="13">
         <v>203</v>
       </c>
@@ -3947,11 +3962,11 @@
       <c r="F204" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AD204" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AC204" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205" s="13">
         <v>204</v>
       </c>
@@ -3967,11 +3982,11 @@
       <c r="F205" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R205" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Q205" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206" s="13">
         <v>205</v>
       </c>
@@ -3988,7 +4003,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207" s="13">
         <v>206</v>
       </c>
@@ -3998,11 +4013,11 @@
       <c r="C207" s="1">
         <v>-3.08</v>
       </c>
-      <c r="T207" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="S207" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208" s="13">
         <v>207</v>
       </c>
@@ -4012,7 +4027,7 @@
       <c r="C208" s="1">
         <v>-15.67</v>
       </c>
-      <c r="Y208" s="8" t="s">
+      <c r="X208" s="8" t="s">
         <v>67</v>
       </c>
     </row>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="106">
   <si>
     <t>Betrag</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>SHELL</t>
+  </si>
+  <si>
+    <t>VODAFONE</t>
   </si>
 </sst>
 </file>
@@ -694,11 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG208"/>
+  <dimension ref="A1:AG210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4031,6 +4034,43 @@
         <v>67</v>
       </c>
     </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A209" s="13">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5">
+        <v>43938</v>
+      </c>
+      <c r="C209" s="1">
+        <v>-24.78</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R209" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A210" s="13">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5">
+        <v>43938</v>
+      </c>
+      <c r="C210" s="1">
+        <v>-19.13</v>
+      </c>
+      <c r="D210" s="1">
+        <v>151.63</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC210" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="108">
   <si>
     <t>Betrag</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>VODAFONE</t>
+  </si>
+  <si>
+    <t>Zeitraum von</t>
+  </si>
+  <si>
+    <t>Zeitraum bis</t>
   </si>
 </sst>
 </file>
@@ -697,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG210"/>
+  <dimension ref="A1:AI210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,13 +718,14 @@
     <col min="4" max="4" width="11.5546875" style="1"/>
     <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="33" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="35" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="3" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>73</v>
       </c>
@@ -737,89 +744,95 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -829,11 +842,11 @@
       <c r="C2" s="1">
         <v>-7.99</v>
       </c>
-      <c r="AC2" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -849,11 +862,11 @@
       <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE3" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -866,11 +879,11 @@
       <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -880,11 +893,11 @@
       <c r="C5" s="1">
         <v>-20</v>
       </c>
-      <c r="U5" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="W5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -894,11 +907,11 @@
       <c r="C6" s="1">
         <v>-32.86</v>
       </c>
-      <c r="V6" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="X6" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -911,11 +924,11 @@
       <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="W7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Y7" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -925,11 +938,11 @@
       <c r="C8" s="1">
         <v>-530</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="M8" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -945,11 +958,11 @@
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P9" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -962,11 +975,11 @@
       <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Q10" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -982,11 +995,11 @@
       <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AF11" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -999,11 +1012,11 @@
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Q12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1013,11 +1026,11 @@
       <c r="C13" s="1">
         <v>-91</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Q13" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1030,11 +1043,11 @@
       <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AC14" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE14" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1047,11 +1060,11 @@
       <c r="F15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AA15" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AC15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1064,11 +1077,11 @@
       <c r="F16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AC16" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AE16" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1078,11 +1091,11 @@
       <c r="C17" s="1">
         <v>-14.05</v>
       </c>
-      <c r="AD17" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1092,11 +1105,11 @@
       <c r="C18" s="1">
         <v>-7.49</v>
       </c>
-      <c r="AD18" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF18" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1109,11 +1122,11 @@
       <c r="F19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R19" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1123,11 +1136,11 @@
       <c r="C20" s="1">
         <v>-18.95</v>
       </c>
-      <c r="S20" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="U20" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1137,11 +1150,11 @@
       <c r="C21" s="1">
         <v>-52.28</v>
       </c>
-      <c r="S21" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="U21" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1151,11 +1164,11 @@
       <c r="C22" s="1">
         <v>-19.309999999999999</v>
       </c>
-      <c r="S22" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="U22" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1168,11 +1181,11 @@
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N23" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1185,11 +1198,11 @@
       <c r="F24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N24" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -1202,11 +1215,11 @@
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1219,11 +1232,11 @@
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N26" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -1236,11 +1249,11 @@
       <c r="F27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S27" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="U27" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1250,11 +1263,11 @@
       <c r="C28" s="1">
         <v>-23.98</v>
       </c>
-      <c r="R28" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="T28" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -1267,11 +1280,11 @@
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="S29" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1287,11 +1300,11 @@
       <c r="F30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="J30" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -1301,11 +1314,11 @@
       <c r="C31" s="1">
         <v>-29.07</v>
       </c>
-      <c r="S31" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="U31" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -1318,11 +1331,11 @@
       <c r="F32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L32" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1332,11 +1345,11 @@
       <c r="C33" s="1">
         <v>-66.430000000000007</v>
       </c>
-      <c r="X33" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z33" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -1346,11 +1359,11 @@
       <c r="C34" s="1">
         <v>-30.17</v>
       </c>
-      <c r="R34" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T34" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -1366,11 +1379,11 @@
       <c r="F35" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="J35" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -1380,11 +1393,11 @@
       <c r="C36" s="1">
         <v>-4.28</v>
       </c>
-      <c r="S36" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U36" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -1394,11 +1407,11 @@
       <c r="C37" s="1">
         <v>83.19</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L37" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -1408,11 +1421,11 @@
       <c r="C38" s="1">
         <v>-20.98</v>
       </c>
-      <c r="N38" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P38" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -1422,11 +1435,11 @@
       <c r="C39" s="1">
         <v>499.14</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L39" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -1436,11 +1449,11 @@
       <c r="C40" s="1">
         <v>-26.31</v>
       </c>
-      <c r="AC40" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE40" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -1450,11 +1463,11 @@
       <c r="C41" s="1">
         <v>-38.450000000000003</v>
       </c>
-      <c r="S41" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U41" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -1464,11 +1477,11 @@
       <c r="C42" s="1">
         <v>-6.09</v>
       </c>
-      <c r="S42" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U42" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -1481,11 +1494,11 @@
       <c r="F43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="J43" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -1495,11 +1508,11 @@
       <c r="C44" s="1">
         <v>-45.03</v>
       </c>
-      <c r="N44" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P44" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>44</v>
       </c>
@@ -1515,11 +1528,11 @@
       <c r="F45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N45" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P45" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -1532,11 +1545,11 @@
       <c r="F46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="T46" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="V46" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>46</v>
       </c>
@@ -1552,11 +1565,11 @@
       <c r="F47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N47" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P47" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -1566,11 +1579,11 @@
       <c r="C48" s="1">
         <v>-7</v>
       </c>
-      <c r="N48" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P48" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -1583,11 +1596,11 @@
       <c r="F49" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AA49" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC49" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -1597,11 +1610,11 @@
       <c r="C50" s="1">
         <v>-767</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="K50" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -1614,11 +1627,11 @@
       <c r="F51" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T51" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="V51" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -1628,11 +1641,11 @@
       <c r="C52" s="1">
         <v>-7.99</v>
       </c>
-      <c r="AC52" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE52" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -1645,11 +1658,11 @@
       <c r="F53" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="J53" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -1659,11 +1672,11 @@
       <c r="C54" s="1">
         <v>-20</v>
       </c>
-      <c r="T54" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="V54" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>54</v>
       </c>
@@ -1673,11 +1686,11 @@
       <c r="C55" s="1">
         <v>-32.86</v>
       </c>
-      <c r="V55" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X55" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -1687,11 +1700,11 @@
       <c r="C56" s="1">
         <v>-19.899999999999999</v>
       </c>
-      <c r="W56" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y56" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -1704,11 +1717,11 @@
       <c r="F57" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="W57" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y57" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -1718,11 +1731,11 @@
       <c r="C58" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="N58" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P58" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>58</v>
       </c>
@@ -1732,11 +1745,11 @@
       <c r="C59" s="1">
         <v>-530</v>
       </c>
-      <c r="K59" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M59" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -1746,11 +1759,11 @@
       <c r="C60" s="1">
         <v>-17.47</v>
       </c>
-      <c r="S60" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U60" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -1760,11 +1773,11 @@
       <c r="C61" s="1">
         <v>-7.26</v>
       </c>
-      <c r="S61" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U61" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -1774,11 +1787,11 @@
       <c r="C62" s="1">
         <v>-61.65</v>
       </c>
-      <c r="X62" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z62" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -1788,11 +1801,11 @@
       <c r="C63" s="1">
         <v>-30</v>
       </c>
-      <c r="AC63" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE63" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -1808,11 +1821,11 @@
       <c r="F64" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N64" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P64" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -1822,11 +1835,11 @@
       <c r="C65" s="1">
         <v>-12.98</v>
       </c>
-      <c r="N65" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P65" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -1836,11 +1849,11 @@
       <c r="C66" s="1">
         <v>-14.16</v>
       </c>
-      <c r="AC66" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE66" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -1850,11 +1863,11 @@
       <c r="C67" s="1">
         <v>1081.47</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L67" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -1864,11 +1877,11 @@
       <c r="C68" s="1">
         <v>-45</v>
       </c>
-      <c r="O68" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q68" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>68</v>
       </c>
@@ -1878,11 +1891,11 @@
       <c r="C69" s="1">
         <v>-135</v>
       </c>
-      <c r="Y69" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA69" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -1892,11 +1905,11 @@
       <c r="C70" s="1">
         <v>-12.24</v>
       </c>
-      <c r="S70" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U70" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>70</v>
       </c>
@@ -1912,11 +1925,11 @@
       <c r="F71" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L71" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N71" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -1926,11 +1939,11 @@
       <c r="C72" s="1">
         <v>-10.96</v>
       </c>
-      <c r="S72" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U72" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -1943,11 +1956,11 @@
       <c r="F73" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R73" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T73" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -1960,11 +1973,11 @@
       <c r="F74" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="J74" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -1977,11 +1990,11 @@
       <c r="F75" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S75" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U75" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -1997,11 +2010,11 @@
       <c r="F76" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q76" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="S76" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -2011,11 +2024,11 @@
       <c r="C77" s="1">
         <v>-4.43</v>
       </c>
-      <c r="S77" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U77" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -2028,11 +2041,11 @@
       <c r="F78" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AC78" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE78" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -2042,11 +2055,11 @@
       <c r="C79" s="1">
         <v>-150</v>
       </c>
-      <c r="I79" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="K79" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -2056,11 +2069,11 @@
       <c r="C80" s="1">
         <v>-43.64</v>
       </c>
-      <c r="R80" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T80" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -2070,11 +2083,11 @@
       <c r="C81" s="1">
         <v>-30.61</v>
       </c>
-      <c r="R81" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T81" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -2090,11 +2103,11 @@
       <c r="F82" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J82" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L82" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -2104,11 +2117,11 @@
       <c r="C83" s="1">
         <v>-6.5</v>
       </c>
-      <c r="M83" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="O83" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -2124,11 +2137,11 @@
       <c r="F84" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H84" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J84" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>84</v>
       </c>
@@ -2138,11 +2151,11 @@
       <c r="C85" s="1">
         <v>-6.92</v>
       </c>
-      <c r="S85" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U85" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>85</v>
       </c>
@@ -2152,11 +2165,11 @@
       <c r="C86" s="1">
         <v>-12.6</v>
       </c>
-      <c r="S86" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U86" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -2166,11 +2179,11 @@
       <c r="C87" s="1">
         <v>332.76</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="L87" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -2183,11 +2196,11 @@
       <c r="F88" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L88" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N88" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -2197,11 +2210,11 @@
       <c r="C89" s="1">
         <v>-395</v>
       </c>
-      <c r="I89" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K89" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -2211,11 +2224,11 @@
       <c r="C90" s="1">
         <v>-20</v>
       </c>
-      <c r="U90" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W90" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -2225,11 +2238,11 @@
       <c r="C91" s="1">
         <v>-32.86</v>
       </c>
-      <c r="V91" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X91" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -2242,11 +2255,11 @@
       <c r="F92" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="W92" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y92" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -2259,11 +2272,11 @@
       <c r="F93" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="W93" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y93" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -2273,11 +2286,11 @@
       <c r="C94" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="N94" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P94" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -2290,11 +2303,11 @@
       <c r="F95" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="T95" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V95" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -2304,11 +2317,11 @@
       <c r="C96" s="1">
         <v>-530</v>
       </c>
-      <c r="K96" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M96" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -2321,11 +2334,11 @@
       <c r="F97" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AC97" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE97" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -2338,11 +2351,11 @@
       <c r="F98" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L98" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N98" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -2352,11 +2365,11 @@
       <c r="C99" s="1">
         <v>-97.75</v>
       </c>
-      <c r="AA99" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC99" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -2369,11 +2382,11 @@
       <c r="F100" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AC100" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE100" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -2386,11 +2399,11 @@
       <c r="F101" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AC101" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE101" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -2400,11 +2413,11 @@
       <c r="C102" s="1">
         <v>-73.95</v>
       </c>
-      <c r="Y102" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AA102" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -2414,11 +2427,11 @@
       <c r="C103" s="1">
         <v>-10.199999999999999</v>
       </c>
-      <c r="S103" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U103" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -2428,11 +2441,11 @@
       <c r="C104" s="1">
         <v>-3.87</v>
       </c>
-      <c r="S104" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U104" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -2442,11 +2455,11 @@
       <c r="C105" s="1">
         <v>-6.3</v>
       </c>
-      <c r="M105" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O105" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -2459,11 +2472,11 @@
       <c r="F106" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L106" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N106" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -2476,11 +2489,11 @@
       <c r="F107" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L107" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N107" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -2490,11 +2503,11 @@
       <c r="C108" s="1">
         <v>-45</v>
       </c>
-      <c r="O108" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q108" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -2504,11 +2517,11 @@
       <c r="C109" s="1">
         <v>-6.3</v>
       </c>
-      <c r="M109" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O109" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -2518,11 +2531,11 @@
       <c r="C110" s="1">
         <v>-2.99</v>
       </c>
-      <c r="S110" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U110" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -2532,11 +2545,11 @@
       <c r="C111" s="1">
         <v>-6.3</v>
       </c>
-      <c r="M111" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O111" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -2546,11 +2559,11 @@
       <c r="C112" s="1">
         <v>-29.98</v>
       </c>
-      <c r="R112" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T112" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -2560,11 +2573,11 @@
       <c r="C113" s="1">
         <v>-2.99</v>
       </c>
-      <c r="S113" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U113" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -2574,11 +2587,11 @@
       <c r="C114" s="1">
         <v>-11.5</v>
       </c>
-      <c r="X114" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z114" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -2588,11 +2601,11 @@
       <c r="C115" s="1">
         <v>-75</v>
       </c>
-      <c r="Y115" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AA115" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -2608,11 +2621,11 @@
       <c r="F116" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H116" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J116" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -2622,11 +2635,11 @@
       <c r="C117" s="1">
         <v>-2.99</v>
       </c>
-      <c r="S117" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U117" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -2642,11 +2655,11 @@
       <c r="F118" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H118" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J118" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="13">
         <v>118</v>
       </c>
@@ -2656,11 +2669,11 @@
       <c r="C119" s="1">
         <v>-2.99</v>
       </c>
-      <c r="S119" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U119" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -2670,11 +2683,11 @@
       <c r="C120" s="1">
         <v>-9.27</v>
       </c>
-      <c r="S120" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U120" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -2684,11 +2697,11 @@
       <c r="C121" s="1">
         <v>-36.1</v>
       </c>
-      <c r="S121" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U121" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -2698,11 +2711,11 @@
       <c r="C122" s="1">
         <v>98.98</v>
       </c>
-      <c r="N122" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="P122" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -2715,11 +2728,11 @@
       <c r="F123" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L123" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N123" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -2729,11 +2742,11 @@
       <c r="C124" s="1">
         <v>-34.229999999999997</v>
       </c>
-      <c r="N124" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="P124" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -2743,11 +2756,11 @@
       <c r="C125" s="1">
         <v>-2.99</v>
       </c>
-      <c r="S125" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U125" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="13">
         <v>125</v>
       </c>
@@ -2757,11 +2770,11 @@
       <c r="C126" s="1">
         <v>-15.97</v>
       </c>
-      <c r="X126" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z126" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -2771,11 +2784,11 @@
       <c r="C127" s="1">
         <v>1247.8499999999999</v>
       </c>
-      <c r="J127" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L127" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -2785,11 +2798,11 @@
       <c r="C128" s="1">
         <v>-31</v>
       </c>
-      <c r="Q128" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S128" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -2799,11 +2812,11 @@
       <c r="C129" s="1">
         <v>-2.99</v>
       </c>
-      <c r="S129" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U129" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -2813,11 +2826,11 @@
       <c r="C130" s="1">
         <v>-2.89</v>
       </c>
-      <c r="S130" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U130" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -2827,11 +2840,11 @@
       <c r="C131" s="1">
         <v>-6.27</v>
       </c>
-      <c r="S131" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U131" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -2847,11 +2860,11 @@
       <c r="F132" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L132" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N132" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -2861,11 +2874,11 @@
       <c r="C133" s="1">
         <v>-395</v>
       </c>
-      <c r="I133" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K133" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -2875,11 +2888,11 @@
       <c r="C134" s="1">
         <v>-29.95</v>
       </c>
-      <c r="R134" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T134" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -2889,11 +2902,11 @@
       <c r="C135" s="1">
         <v>-19.16</v>
       </c>
-      <c r="X135" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z135" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="13">
         <v>135</v>
       </c>
@@ -2903,11 +2916,11 @@
       <c r="C136" s="1">
         <v>-65.5</v>
       </c>
-      <c r="N136" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P136" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -2917,11 +2930,11 @@
       <c r="C137" s="1">
         <v>-6.3</v>
       </c>
-      <c r="M137" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="O137" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="13">
         <v>137</v>
       </c>
@@ -2931,11 +2944,11 @@
       <c r="C138" s="1">
         <v>-9.25</v>
       </c>
-      <c r="S138" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U138" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -2948,11 +2961,11 @@
       <c r="F139" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J139" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L139" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" s="13">
         <v>139</v>
       </c>
@@ -2962,11 +2975,11 @@
       <c r="C140" s="1">
         <v>-790</v>
       </c>
-      <c r="I140" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K140" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -2976,11 +2989,11 @@
       <c r="C141" s="1">
         <v>-22.5</v>
       </c>
-      <c r="X141" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z141" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>141</v>
       </c>
@@ -2990,11 +3003,11 @@
       <c r="C142" s="1">
         <v>-3.58</v>
       </c>
-      <c r="S142" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="U142" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>142</v>
       </c>
@@ -3007,11 +3020,11 @@
       <c r="F143" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L143" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N143" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>143</v>
       </c>
@@ -3024,11 +3037,11 @@
       <c r="F144" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L144" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N144" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>144</v>
       </c>
@@ -3038,12 +3051,12 @@
       <c r="C145" s="1">
         <v>-135</v>
       </c>
-      <c r="J145" s="8"/>
-      <c r="Y145" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L145" s="8"/>
+      <c r="AA145" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>145</v>
       </c>
@@ -3053,11 +3066,11 @@
       <c r="C146" s="1">
         <v>-6.3</v>
       </c>
-      <c r="M146" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O146" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>146</v>
       </c>
@@ -3067,11 +3080,11 @@
       <c r="C147" s="1">
         <v>-25.13</v>
       </c>
-      <c r="X147" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z147" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>147</v>
       </c>
@@ -3081,11 +3094,11 @@
       <c r="C148" s="1">
         <v>-11.21</v>
       </c>
-      <c r="X148" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z148" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>148</v>
       </c>
@@ -3095,11 +3108,11 @@
       <c r="C149" s="1">
         <v>-6.5</v>
       </c>
-      <c r="M149" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O149" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>149</v>
       </c>
@@ -3109,11 +3122,11 @@
       <c r="C150" s="1">
         <v>-12.29</v>
       </c>
-      <c r="S150" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U150" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>150</v>
       </c>
@@ -3126,12 +3139,12 @@
       <c r="F151" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G151" s="1"/>
-      <c r="T151" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="I151" s="1"/>
+      <c r="V151" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>151</v>
       </c>
@@ -3147,11 +3160,11 @@
       <c r="F152" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AC152" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE152" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>152</v>
       </c>
@@ -3161,11 +3174,11 @@
       <c r="C153" s="1">
         <v>-24.94</v>
       </c>
-      <c r="AA153" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC153" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>153</v>
       </c>
@@ -3175,11 +3188,11 @@
       <c r="C154" s="1">
         <v>-2.75</v>
       </c>
-      <c r="S154" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U154" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A155" s="13">
         <v>154</v>
       </c>
@@ -3192,11 +3205,11 @@
       <c r="F155" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L155" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N155" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A156" s="13">
         <v>155</v>
       </c>
@@ -3206,11 +3219,11 @@
       <c r="C156" s="1">
         <v>-140</v>
       </c>
-      <c r="AB156" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD156" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A157" s="13">
         <v>156</v>
       </c>
@@ -3220,11 +3233,11 @@
       <c r="C157" s="1">
         <v>-20</v>
       </c>
-      <c r="U157" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W157" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A158" s="13">
         <v>157</v>
       </c>
@@ -3234,11 +3247,11 @@
       <c r="C158" s="1">
         <v>-32.86</v>
       </c>
-      <c r="V158" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="X158" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A159" s="13">
         <v>158</v>
       </c>
@@ -3251,11 +3264,11 @@
       <c r="F159" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="W159" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y159" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A160" s="13">
         <v>159</v>
       </c>
@@ -3268,11 +3281,11 @@
       <c r="F160" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="W160" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Y160" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A161" s="13">
         <v>160</v>
       </c>
@@ -3282,11 +3295,11 @@
       <c r="C161" s="1">
         <v>-35.409999999999997</v>
       </c>
-      <c r="N161" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P161" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A162" s="13">
         <v>161</v>
       </c>
@@ -3296,11 +3309,11 @@
       <c r="C162" s="1">
         <v>-21.26</v>
       </c>
-      <c r="X162" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z162" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A163" s="13">
         <v>162</v>
       </c>
@@ -3310,11 +3323,11 @@
       <c r="C163" s="1">
         <v>-2.75</v>
       </c>
-      <c r="S163" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U163" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A164" s="13">
         <v>163</v>
       </c>
@@ -3324,11 +3337,11 @@
       <c r="C164" s="1">
         <v>-530</v>
       </c>
-      <c r="K164" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="M164" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A165" s="13">
         <v>164</v>
       </c>
@@ -3338,11 +3351,11 @@
       <c r="C165" s="1">
         <v>-2.73</v>
       </c>
-      <c r="S165" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U165" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A166" s="13">
         <v>165</v>
       </c>
@@ -3352,11 +3365,11 @@
       <c r="C166" s="1">
         <v>665.52</v>
       </c>
-      <c r="J166" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="L166" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A167" s="13">
         <v>166</v>
       </c>
@@ -3369,11 +3382,11 @@
       <c r="D167" s="1">
         <v>442.52</v>
       </c>
-      <c r="S167" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U167" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A168" s="13">
         <v>167</v>
       </c>
@@ -3386,11 +3399,11 @@
       <c r="D168" s="1">
         <v>436.22</v>
       </c>
-      <c r="M168" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O168" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A169" s="13">
         <v>168</v>
       </c>
@@ -3403,11 +3416,11 @@
       <c r="F169" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AC169" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE169" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A170" s="13">
         <v>169</v>
       </c>
@@ -3420,11 +3433,11 @@
       <c r="F170" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AC170" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE170" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A171" s="13">
         <v>170</v>
       </c>
@@ -3434,11 +3447,11 @@
       <c r="C171" s="1">
         <v>-0.54</v>
       </c>
-      <c r="S171" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U171" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A172" s="13">
         <v>171</v>
       </c>
@@ -3451,11 +3464,11 @@
       <c r="D172" s="1">
         <v>382.39</v>
       </c>
-      <c r="S172" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U172" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A173" s="13">
         <v>172</v>
       </c>
@@ -3465,11 +3478,11 @@
       <c r="C173" s="1">
         <v>-27.76</v>
       </c>
-      <c r="X173" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z173" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A174" s="13">
         <v>173</v>
       </c>
@@ -3485,11 +3498,11 @@
       <c r="F174" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="S174" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U174" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A175" s="13">
         <v>174</v>
       </c>
@@ -3505,11 +3518,11 @@
       <c r="F175" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="S175" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U175" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A176" s="13">
         <v>175</v>
       </c>
@@ -3519,11 +3532,11 @@
       <c r="C176" s="1">
         <v>-19.95</v>
       </c>
-      <c r="X176" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z176" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A177" s="13">
         <v>176</v>
       </c>
@@ -3533,11 +3546,11 @@
       <c r="C177" s="1">
         <v>-2.99</v>
       </c>
-      <c r="S177" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U177" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A178" s="13">
         <v>177</v>
       </c>
@@ -3547,11 +3560,11 @@
       <c r="C178" s="1">
         <v>-1.79</v>
       </c>
-      <c r="S178" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U178" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -3564,11 +3577,11 @@
       <c r="F179" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N179" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P179" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -3585,12 +3598,12 @@
       <c r="F180" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N180" s="8"/>
-      <c r="AC180" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P180" s="8"/>
+      <c r="AE180" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -3600,11 +3613,11 @@
       <c r="C181" s="1">
         <v>-8.31</v>
       </c>
-      <c r="S181" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U181" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -3617,11 +3630,11 @@
       <c r="D182" s="1">
         <v>211.31</v>
       </c>
-      <c r="X182" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z182" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A183" s="13">
         <v>182</v>
       </c>
@@ -3631,11 +3644,11 @@
       <c r="C183" s="1">
         <v>-4.9800000000000004</v>
       </c>
-      <c r="S183" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U183" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A184" s="13">
         <v>183</v>
       </c>
@@ -3648,11 +3661,11 @@
       <c r="D184" s="1">
         <v>161.33000000000001</v>
       </c>
-      <c r="O184" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q184" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A185" s="13">
         <v>184</v>
       </c>
@@ -3665,11 +3678,11 @@
       <c r="D185" s="1">
         <v>158.16</v>
       </c>
-      <c r="S185" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U185" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A186" s="13">
         <v>185</v>
       </c>
@@ -3679,11 +3692,11 @@
       <c r="C186" s="1">
         <v>-2.99</v>
       </c>
-      <c r="S186" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U186" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A187" s="13">
         <v>186</v>
       </c>
@@ -3696,12 +3709,12 @@
       <c r="D187" s="1">
         <v>279.58</v>
       </c>
-      <c r="S187" s="8"/>
-      <c r="AC187" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U187" s="8"/>
+      <c r="AE187" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A188" s="13">
         <v>187</v>
       </c>
@@ -3711,11 +3724,11 @@
       <c r="C188" s="1">
         <v>-5.4</v>
       </c>
-      <c r="S188" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U188" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A189" s="13">
         <v>188</v>
       </c>
@@ -3725,11 +3738,11 @@
       <c r="C189" s="1">
         <v>-93.04</v>
       </c>
-      <c r="S189" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U189" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A190" s="13">
         <v>189</v>
       </c>
@@ -3742,11 +3755,11 @@
       <c r="D190" s="1">
         <v>179.65</v>
       </c>
-      <c r="S190" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U190" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A191" s="13">
         <v>190</v>
       </c>
@@ -3756,11 +3769,11 @@
       <c r="C191" s="1">
         <v>-7.49</v>
       </c>
-      <c r="M191" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O191" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A192" s="13">
         <v>191</v>
       </c>
@@ -3770,11 +3783,11 @@
       <c r="C192" s="1">
         <v>-22.76</v>
       </c>
-      <c r="X192" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Z192" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A193" s="13">
         <v>192</v>
       </c>
@@ -3784,11 +3797,11 @@
       <c r="C193" s="1">
         <v>-7.97</v>
       </c>
-      <c r="M193" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="O193" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A194" s="13">
         <v>193</v>
       </c>
@@ -3798,11 +3811,11 @@
       <c r="C194" s="1">
         <v>-5.19</v>
       </c>
-      <c r="S194" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="U194" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="195" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A195" s="13">
         <v>194</v>
       </c>
@@ -3812,11 +3825,11 @@
       <c r="C195" s="1">
         <v>582.33000000000004</v>
       </c>
-      <c r="J195" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="L195" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A196" s="13">
         <v>195</v>
       </c>
@@ -3826,11 +3839,11 @@
       <c r="C196" s="1">
         <v>-3.87</v>
       </c>
-      <c r="S196" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="U196" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="197" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A197" s="13">
         <v>196</v>
       </c>
@@ -3840,11 +3853,11 @@
       <c r="C197" s="1">
         <v>-1.39</v>
       </c>
-      <c r="S197" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="U197" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A198" s="13">
         <v>197</v>
       </c>
@@ -3854,11 +3867,11 @@
       <c r="C198" s="1">
         <v>-6.6</v>
       </c>
-      <c r="M198" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="O198" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A199" s="13">
         <v>198</v>
       </c>
@@ -3868,11 +3881,11 @@
       <c r="C199" s="1">
         <v>-8.93</v>
       </c>
-      <c r="S199" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="U199" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A200" s="13">
         <v>199</v>
       </c>
@@ -3888,11 +3901,11 @@
       <c r="F200" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="N200" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P200" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A201" s="13">
         <v>200</v>
       </c>
@@ -3905,11 +3918,11 @@
       <c r="F201" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AC201" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE201" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="202" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A202" s="13">
         <v>201</v>
       </c>
@@ -3925,11 +3938,11 @@
       <c r="F202" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AC202" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE202" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A203" s="13">
         <v>202</v>
       </c>
@@ -3945,11 +3958,11 @@
       <c r="F203" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AG203" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AI203" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="204" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A204" s="13">
         <v>203</v>
       </c>
@@ -3965,11 +3978,11 @@
       <c r="F204" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AC204" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AE204" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="205" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A205" s="13">
         <v>204</v>
       </c>
@@ -3985,11 +3998,11 @@
       <c r="F205" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q205" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S205" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="206" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A206" s="13">
         <v>205</v>
       </c>
@@ -4002,11 +4015,11 @@
       <c r="E206" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M206" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="O206" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="207" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A207" s="13">
         <v>206</v>
       </c>
@@ -4016,11 +4029,11 @@
       <c r="C207" s="1">
         <v>-3.08</v>
       </c>
-      <c r="S207" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="U207" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="208" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A208" s="13">
         <v>207</v>
       </c>
@@ -4030,11 +4043,11 @@
       <c r="C208" s="1">
         <v>-15.67</v>
       </c>
-      <c r="X208" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Z208" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A209" s="13">
         <v>208</v>
       </c>
@@ -4047,11 +4060,11 @@
       <c r="E209" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R209" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T209" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A210" s="13">
         <v>209</v>
       </c>
@@ -4067,7 +4080,7 @@
       <c r="E210" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AC210" s="8" t="s">
+      <c r="AE210" s="8" t="s">
         <v>67</v>
       </c>
     </row>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -706,8 +706,8 @@
   <dimension ref="A1:AI210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,6 +1331,12 @@
       <c r="F32" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="G32" s="5">
+        <v>43887</v>
+      </c>
+      <c r="H32" s="5">
+        <v>43900</v>
+      </c>
       <c r="L32" s="8" t="s">
         <v>67</v>
       </c>
@@ -1407,6 +1413,12 @@
       <c r="C37" s="1">
         <v>83.19</v>
       </c>
+      <c r="G37" s="5">
+        <v>43846</v>
+      </c>
+      <c r="H37" s="5">
+        <v>43846</v>
+      </c>
       <c r="L37" s="8" t="s">
         <v>67</v>
       </c>
@@ -1435,6 +1447,12 @@
       <c r="C39" s="1">
         <v>499.14</v>
       </c>
+      <c r="G39" s="5">
+        <v>43847</v>
+      </c>
+      <c r="H39" s="5">
+        <v>43852</v>
+      </c>
       <c r="L39" s="8" t="s">
         <v>67</v>
       </c>
@@ -1863,6 +1881,12 @@
       <c r="C67" s="1">
         <v>1081.47</v>
       </c>
+      <c r="G67" s="5">
+        <v>43853</v>
+      </c>
+      <c r="H67" s="5">
+        <v>43866</v>
+      </c>
       <c r="L67" s="8" t="s">
         <v>67</v>
       </c>
@@ -2103,6 +2127,12 @@
       <c r="F82" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="G82" s="5">
+        <v>43867</v>
+      </c>
+      <c r="H82" s="5">
+        <v>43882</v>
+      </c>
       <c r="L82" s="8" t="s">
         <v>67</v>
       </c>
@@ -2179,6 +2209,12 @@
       <c r="C87" s="1">
         <v>332.76</v>
       </c>
+      <c r="G87" s="5">
+        <v>43883</v>
+      </c>
+      <c r="H87" s="5">
+        <v>43886</v>
+      </c>
       <c r="L87" s="8" t="s">
         <v>67</v>
       </c>
@@ -2784,6 +2820,12 @@
       <c r="C127" s="1">
         <v>1247.8499999999999</v>
       </c>
+      <c r="G127" s="5">
+        <v>43831</v>
+      </c>
+      <c r="H127" s="5">
+        <v>43845</v>
+      </c>
       <c r="L127" s="8" t="s">
         <v>67</v>
       </c>
@@ -2961,6 +3003,12 @@
       <c r="F139" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="G139" s="5">
+        <v>43901</v>
+      </c>
+      <c r="H139" s="5">
+        <v>43913</v>
+      </c>
       <c r="L139" s="8" t="s">
         <v>67</v>
       </c>
@@ -3365,6 +3413,12 @@
       <c r="C166" s="1">
         <v>665.52</v>
       </c>
+      <c r="G166" s="5">
+        <v>43914</v>
+      </c>
+      <c r="H166" s="5">
+        <v>43922</v>
+      </c>
       <c r="L166" s="8" t="s">
         <v>67</v>
       </c>
@@ -3824,6 +3878,12 @@
       </c>
       <c r="C195" s="1">
         <v>582.33000000000004</v>
+      </c>
+      <c r="G195" s="5">
+        <v>43923</v>
+      </c>
+      <c r="H195" s="5">
+        <v>43929</v>
       </c>
       <c r="L195" s="8" t="s">
         <v>67</v>

--- a/src/main/resources/Konto.xlsx
+++ b/src/main/resources/Konto.xlsx
@@ -706,8 +706,8 @@
   <dimension ref="A1:AI210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
